--- a/ESERCIZIO W1D2.xlsx
+++ b/ESERCIZIO W1D2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlcoz\Desktop\epicode\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlcoz\Desktop\EPICODE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E69A7F2-4D7F-481C-929B-2658576D95C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D210D7-954D-445D-BA13-C85A8C98BB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="206">
   <si>
     <t>Data</t>
   </si>
@@ -708,39 +708,24 @@
   </si>
   <si>
     <t>MEDIA</t>
+  </si>
+  <si>
+    <t>TROVATO</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>- AGGIUNGERE UNA COLONNA PER SCRIVERE TROVATO ALLE RIGHE CON CATEGORIA=ABBIGLIAMENTO E IMPONIBILE &gt; 300.000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">- AGGIUNGERE UNA COLONNA PER SCRIVERE TROVATO ALLE RIGHE CON CATEGORIA=ABBIGLIAMENTO E IMPONIBILE &gt; 300.000
 - AGGIUNGERE UNA COLONNA PER CALCOLARE L'IVA SOLO DEGLI IMPONIBILE DEL CLIENTE HHB
 - FROMATTARE LE CELLE CON CATEGORIA = UFFICIO CON SFONDO ROSSO
 - CALCOLARE MEDIA, SOMMA, di IMPONIBILE DOPO AVER DATO UN NOME ALLA COLONNA IMPONIBILE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- AGGIUNGERE UNA COLONNA DOVE SCRIVERE VERO SOLO PER LE RIGHE CON CATEGORIA MANUALI E IMPONIBILE &lt; DI 1.000.000
+- AGGIUNGERE UNA COLONNA DOVE SCRIVERE VERO SOLO PER LE RIGHE CON CATEGORIA MANUALI E IMPONIBILE &lt; DI 1.000.000
 </t>
     </r>
     <r>
@@ -819,7 +804,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -978,7 +963,7 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1006,6 +991,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1015,10 +1003,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1033,218 +1017,11 @@
     <cellStyle name="Valuta 2" xfId="7" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1546,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64CFBE5-9F9D-4F9A-8F99-5524B5637A72}">
-  <dimension ref="A1:H340"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1558,28 +1335,29 @@
     <col min="1" max="1" width="41.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="7"/>
+    <col min="4" max="4" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    <row r="1" spans="1:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>188</v>
       </c>
@@ -1589,10 +1367,13 @@
       <c r="C4" s="14" t="s">
         <v>187</v>
       </c>
+      <c r="D4" s="13" t="s">
+        <v>204</v>
+      </c>
       <c r="E4" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="29">
         <v>0.22</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -1601,8 +1382,11 @@
       <c r="H4" s="13" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
@@ -1612,11 +1396,15 @@
       <c r="C5" s="9">
         <v>281000</v>
       </c>
-      <c r="E5" s="32">
+      <c r="D5" s="7" t="str">
+        <f>IF(AND(B5="Abbigliamento",C5&gt;300000),"trovato","")</f>
+        <v/>
+      </c>
+      <c r="E5" s="28">
         <f>SUMIF(A:A,"HHB",C:C)</f>
         <v>4984000</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="28">
         <f>E5*F$4</f>
         <v>1096480</v>
       </c>
@@ -1628,8 +1416,12 @@
         <f>AVERAGE(C5:C340)</f>
         <v>519442.42424242425</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="7" t="str">
+        <f>IF(AND(B5="Manuali",C5&lt;1000000), "vero","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1639,8 +1431,16 @@
       <c r="C6" s="9">
         <v>323000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" s="7" t="str">
+        <f t="shared" ref="D6:D69" si="0">IF(AND(B6="Abbigliamento",C6&gt;300000),"trovato","")</f>
+        <v>trovato</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" ref="I6:I69" si="1">IF(AND(B6="Manuali",C6&lt;1000000), "vero","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>193</v>
       </c>
@@ -1650,12 +1450,16 @@
       <c r="C7" s="9">
         <v>344000</v>
       </c>
-      <c r="D7" s="7" t="str" cm="1">
-        <f t="array" ref="D7">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"VERO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>62</v>
       </c>
@@ -1665,12 +1469,16 @@
       <c r="C8" s="9">
         <v>361000</v>
       </c>
-      <c r="D8" s="7" t="str" cm="1">
-        <f t="array" ref="D8">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"VERO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1680,12 +1488,16 @@
       <c r="C9" s="9">
         <v>521000</v>
       </c>
-      <c r="D9" s="7" t="str" cm="1">
-        <f t="array" ref="D9">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1695,12 +1507,16 @@
       <c r="C10" s="9">
         <v>527000</v>
       </c>
-      <c r="D10" s="7" t="str" cm="1">
-        <f t="array" ref="D10">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -1710,12 +1526,16 @@
       <c r="C11" s="9">
         <v>626000</v>
       </c>
-      <c r="D11" s="7" t="str" cm="1">
-        <f t="array" ref="D11">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>193</v>
       </c>
@@ -1725,12 +1545,16 @@
       <c r="C12" s="9">
         <v>656000</v>
       </c>
-      <c r="D12" s="7" t="str" cm="1">
-        <f t="array" ref="D12">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -1740,12 +1564,16 @@
       <c r="C13" s="9">
         <v>666000</v>
       </c>
-      <c r="D13" s="7" t="str" cm="1">
-        <f t="array" ref="D13">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
@@ -1755,12 +1583,16 @@
       <c r="C14" s="9">
         <v>882000</v>
       </c>
-      <c r="D14" s="7" t="str" cm="1">
-        <f t="array" ref="D14">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1770,12 +1602,16 @@
       <c r="C15" s="9">
         <v>1108000</v>
       </c>
-      <c r="D15" s="7" t="str" cm="1">
-        <f t="array" ref="D15">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
@@ -1785,12 +1621,16 @@
       <c r="C16" s="9">
         <v>1316000</v>
       </c>
-      <c r="D16" s="7" t="str" cm="1">
-        <f t="array" ref="D16">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>67</v>
       </c>
@@ -1800,12 +1640,16 @@
       <c r="C17" s="9">
         <v>1594000</v>
       </c>
-      <c r="D17" s="7" t="str" cm="1">
-        <f t="array" ref="D17">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
@@ -1815,16 +1659,20 @@
       <c r="C18" s="9">
         <v>2719000</v>
       </c>
-      <c r="D18" s="7" t="str" cm="1">
-        <f t="array" ref="D18">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D18" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G18" s="7" t="str" cm="1">
         <f t="array" ref="G18">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1834,16 +1682,20 @@
       <c r="C19" s="10">
         <v>0</v>
       </c>
-      <c r="D19" s="7" t="str" cm="1">
-        <f t="array" ref="D19">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G19" s="7" t="str" cm="1">
         <f t="array" ref="G19">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
@@ -1853,16 +1705,20 @@
       <c r="C20" s="9">
         <v>4092000</v>
       </c>
-      <c r="D20" s="7" t="str" cm="1">
-        <f t="array" ref="D20">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D20" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G20" s="7" t="str" cm="1">
         <f t="array" ref="G20">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>52</v>
       </c>
@@ -1872,16 +1728,20 @@
       <c r="C21" s="9">
         <v>13859000</v>
       </c>
-      <c r="D21" s="7" t="str" cm="1">
-        <f t="array" ref="D21">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D21" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G21" s="7" t="str" cm="1">
         <f t="array" ref="G21">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
@@ -1891,16 +1751,20 @@
       <c r="C22" s="10">
         <v>0</v>
       </c>
-      <c r="D22" s="7" t="str" cm="1">
-        <f t="array" ref="D22">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D22" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G22" s="7" t="str" cm="1">
         <f t="array" ref="G22">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -1910,16 +1774,20 @@
       <c r="C23" s="9">
         <v>167000</v>
       </c>
-      <c r="D23" s="7" t="str" cm="1">
-        <f t="array" ref="D23">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D23" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G23" s="7" t="str" cm="1">
         <f t="array" ref="G23">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
@@ -1929,16 +1797,20 @@
       <c r="C24" s="9">
         <v>202000</v>
       </c>
-      <c r="D24" s="7" t="str" cm="1">
-        <f t="array" ref="D24">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D24" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G24" s="7" t="str" cm="1">
         <f t="array" ref="G24">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>59</v>
       </c>
@@ -1948,16 +1820,20 @@
       <c r="C25" s="9">
         <v>203000</v>
       </c>
-      <c r="D25" s="7" t="str" cm="1">
-        <f t="array" ref="D25">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D25" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G25" s="7" t="str" cm="1">
         <f t="array" ref="G25">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1967,16 +1843,20 @@
       <c r="C26" s="9">
         <v>234000</v>
       </c>
-      <c r="D26" s="7" t="str" cm="1">
-        <f t="array" ref="D26">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D26" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G26" s="7" t="str" cm="1">
         <f t="array" ref="G26">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>56</v>
       </c>
@@ -1986,16 +1866,20 @@
       <c r="C27" s="9">
         <v>252000</v>
       </c>
-      <c r="D27" s="7" t="str" cm="1">
-        <f t="array" ref="D27">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D27" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G27" s="7" t="str" cm="1">
         <f t="array" ref="G27">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -2005,16 +1889,20 @@
       <c r="C28" s="9">
         <v>259000</v>
       </c>
-      <c r="D28" s="7" t="str" cm="1">
-        <f t="array" ref="D28">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D28" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G28" s="7" t="str" cm="1">
         <f t="array" ref="G28">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
@@ -2024,16 +1912,20 @@
       <c r="C29" s="9">
         <v>269000</v>
       </c>
-      <c r="D29" s="7" t="str" cm="1">
-        <f t="array" ref="D29">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G29" s="7" t="str" cm="1">
         <f t="array" ref="G29">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
@@ -2043,16 +1935,20 @@
       <c r="C30" s="9">
         <v>271000</v>
       </c>
-      <c r="D30" s="7" t="str" cm="1">
-        <f t="array" ref="D30">IF(AND(B:B,"ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D30" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G30" s="7" t="str" cm="1">
         <f t="array" ref="G30">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>56</v>
       </c>
@@ -2062,16 +1958,20 @@
       <c r="C31" s="9">
         <v>292000</v>
       </c>
-      <c r="D31" s="7" t="str" cm="1">
-        <f t="array" ref="D31">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G31" s="7" t="str" cm="1">
         <f t="array" ref="G31">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -2081,16 +1981,20 @@
       <c r="C32" s="9">
         <v>293000</v>
       </c>
-      <c r="D32" s="7" t="str" cm="1">
-        <f t="array" ref="D32">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D32" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G32" s="7" t="str" cm="1">
         <f t="array" ref="G32">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>47</v>
       </c>
@@ -2100,16 +2004,20 @@
       <c r="C33" s="9">
         <v>307000</v>
       </c>
-      <c r="D33" s="7" t="str" cm="1">
-        <f t="array" ref="D33">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D33" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G33" s="7" t="str" cm="1">
         <f t="array" ref="G33">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -2119,16 +2027,20 @@
       <c r="C34" s="9">
         <v>440000</v>
       </c>
-      <c r="D34" s="7" t="str" cm="1">
-        <f t="array" ref="D34">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D34" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G34" s="7" t="str" cm="1">
         <f t="array" ref="G34">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
@@ -2138,16 +2050,20 @@
       <c r="C35" s="9">
         <v>487000</v>
       </c>
-      <c r="D35" s="7" t="str" cm="1">
-        <f t="array" ref="D35">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D35" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G35" s="7" t="str" cm="1">
         <f t="array" ref="G35">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>49</v>
       </c>
@@ -2157,16 +2073,20 @@
       <c r="C36" s="9">
         <v>566000</v>
       </c>
-      <c r="D36" s="7" t="str" cm="1">
-        <f t="array" ref="D36">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D36" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G36" s="7" t="str" cm="1">
         <f t="array" ref="G36">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>20</v>
       </c>
@@ -2176,16 +2096,20 @@
       <c r="C37" s="9">
         <v>802000</v>
       </c>
-      <c r="D37" s="7" t="str" cm="1">
-        <f t="array" ref="D37">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D37" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G37" s="7" t="str" cm="1">
         <f t="array" ref="G37">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>18</v>
       </c>
@@ -2195,16 +2119,20 @@
       <c r="C38" s="9">
         <v>1579000</v>
       </c>
-      <c r="D38" s="7" t="str" cm="1">
-        <f t="array" ref="D38">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D38" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G38" s="7" t="str" cm="1">
         <f t="array" ref="G38">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
@@ -2214,16 +2142,20 @@
       <c r="C39" s="10">
         <v>0</v>
       </c>
-      <c r="D39" s="7" t="str" cm="1">
-        <f t="array" ref="D39">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D39" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G39" s="7" t="str" cm="1">
         <f t="array" ref="G39">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>67</v>
       </c>
@@ -2233,16 +2165,20 @@
       <c r="C40" s="9">
         <v>70000</v>
       </c>
-      <c r="D40" s="7" t="str" cm="1">
-        <f t="array" ref="D40">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D40" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G40" s="7" t="str" cm="1">
         <f t="array" ref="G40">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2252,16 +2188,20 @@
       <c r="C41" s="9">
         <v>104000</v>
       </c>
-      <c r="D41" s="7" t="str" cm="1">
-        <f t="array" ref="D41">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D41" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G41" s="7" t="str" cm="1">
         <f t="array" ref="G41">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I41" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>61</v>
       </c>
@@ -2271,16 +2211,20 @@
       <c r="C42" s="9">
         <v>127000</v>
       </c>
-      <c r="D42" s="7" t="str" cm="1">
-        <f t="array" ref="D42">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D42" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G42" s="7" t="str" cm="1">
         <f t="array" ref="G42">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I42" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -2290,16 +2234,20 @@
       <c r="C43" s="9">
         <v>162000</v>
       </c>
-      <c r="D43" s="7" t="str" cm="1">
-        <f t="array" ref="D43">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D43" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G43" s="7" t="str" cm="1">
         <f t="array" ref="G43">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I43" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
@@ -2309,16 +2257,20 @@
       <c r="C44" s="9">
         <v>179000</v>
       </c>
-      <c r="D44" s="7" t="str" cm="1">
-        <f t="array" ref="D44">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D44" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G44" s="7" t="str" cm="1">
         <f t="array" ref="G44">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I44" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>70</v>
       </c>
@@ -2328,16 +2280,20 @@
       <c r="C45" s="9">
         <v>186000</v>
       </c>
-      <c r="D45" s="7" t="str" cm="1">
-        <f t="array" ref="D45">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D45" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G45" s="7" t="str" cm="1">
         <f t="array" ref="G45">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I45" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>33</v>
       </c>
@@ -2347,16 +2303,20 @@
       <c r="C46" s="9">
         <v>186000</v>
       </c>
-      <c r="D46" s="7" t="str" cm="1">
-        <f t="array" ref="D46">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D46" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G46" s="7" t="str" cm="1">
         <f t="array" ref="G46">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I46" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>20</v>
       </c>
@@ -2366,16 +2326,20 @@
       <c r="C47" s="9">
         <v>203000</v>
       </c>
-      <c r="D47" s="7" t="str" cm="1">
-        <f t="array" ref="D47">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D47" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G47" s="7" t="str" cm="1">
         <f t="array" ref="G47">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I47" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>45</v>
       </c>
@@ -2385,16 +2349,20 @@
       <c r="C48" s="9">
         <v>212000</v>
       </c>
-      <c r="D48" s="7" t="str" cm="1">
-        <f t="array" ref="D48">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D48" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G48" s="7" t="str" cm="1">
         <f t="array" ref="G48">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I48" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -2404,16 +2372,20 @@
       <c r="C49" s="9">
         <v>222000</v>
       </c>
-      <c r="D49" s="7" t="str" cm="1">
-        <f t="array" ref="D49">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D49" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G49" s="7" t="str" cm="1">
         <f t="array" ref="G49">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I49" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>21</v>
       </c>
@@ -2423,16 +2395,20 @@
       <c r="C50" s="9">
         <v>245000</v>
       </c>
-      <c r="D50" s="7" t="str" cm="1">
-        <f t="array" ref="D50">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D50" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G50" s="7" t="str" cm="1">
         <f t="array" ref="G50">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I50" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>60</v>
       </c>
@@ -2442,16 +2418,20 @@
       <c r="C51" s="9">
         <v>251000</v>
       </c>
-      <c r="D51" s="7" t="str" cm="1">
-        <f t="array" ref="D51">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D51" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G51" s="7" t="str" cm="1">
         <f t="array" ref="G51">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I51" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>69</v>
       </c>
@@ -2461,16 +2441,20 @@
       <c r="C52" s="9">
         <v>257000</v>
       </c>
-      <c r="D52" s="7" t="str" cm="1">
-        <f t="array" ref="D52">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D52" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G52" s="7" t="str" cm="1">
         <f t="array" ref="G52">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I52" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -2480,16 +2464,20 @@
       <c r="C53" s="9">
         <v>269000</v>
       </c>
-      <c r="D53" s="7" t="str" cm="1">
-        <f t="array" ref="D53">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D53" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G53" s="7" t="str" cm="1">
         <f t="array" ref="G53">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I53" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>57</v>
       </c>
@@ -2499,16 +2487,20 @@
       <c r="C54" s="9">
         <v>314000</v>
       </c>
-      <c r="D54" s="7" t="str" cm="1">
-        <f t="array" ref="D54">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D54" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G54" s="7" t="str" cm="1">
         <f t="array" ref="G54">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I54" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>53</v>
       </c>
@@ -2518,16 +2510,20 @@
       <c r="C55" s="9">
         <v>325000</v>
       </c>
-      <c r="D55" s="7" t="str" cm="1">
-        <f t="array" ref="D55">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D55" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G55" s="7" t="str" cm="1">
         <f t="array" ref="G55">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I55" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>5</v>
       </c>
@@ -2537,16 +2533,20 @@
       <c r="C56" s="9">
         <v>347000</v>
       </c>
-      <c r="D56" s="7" t="str" cm="1">
-        <f t="array" ref="D56">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>trovato</v>
       </c>
       <c r="G56" s="7" t="str" cm="1">
         <f t="array" ref="G56">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I56" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>31</v>
       </c>
@@ -2556,16 +2556,20 @@
       <c r="C57" s="9">
         <v>369000</v>
       </c>
-      <c r="D57" s="7" t="str" cm="1">
-        <f t="array" ref="D57">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>trovato</v>
       </c>
       <c r="G57" s="7" t="str" cm="1">
         <f t="array" ref="G57">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I57" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>31</v>
       </c>
@@ -2575,16 +2579,20 @@
       <c r="C58" s="9">
         <v>402000</v>
       </c>
-      <c r="D58" s="7" t="str" cm="1">
-        <f t="array" ref="D58">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>trovato</v>
       </c>
       <c r="G58" s="7" t="str" cm="1">
         <f t="array" ref="G58">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I58" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>47</v>
       </c>
@@ -2594,16 +2602,20 @@
       <c r="C59" s="9">
         <v>471000</v>
       </c>
-      <c r="D59" s="7" t="str" cm="1">
-        <f t="array" ref="D59">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D59" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G59" s="7" t="str" cm="1">
         <f t="array" ref="G59">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I59" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>25</v>
       </c>
@@ -2613,16 +2625,20 @@
       <c r="C60" s="9">
         <v>476000</v>
       </c>
-      <c r="D60" s="7" t="str" cm="1">
-        <f t="array" ref="D60">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D60" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G60" s="7" t="str" cm="1">
         <f t="array" ref="G60">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I60" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>65</v>
       </c>
@@ -2632,16 +2648,20 @@
       <c r="C61" s="9">
         <v>492000</v>
       </c>
-      <c r="D61" s="7" t="str" cm="1">
-        <f t="array" ref="D61">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D61" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G61" s="7" t="str" cm="1">
         <f t="array" ref="G61">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I61" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>66</v>
       </c>
@@ -2651,16 +2671,20 @@
       <c r="C62" s="9">
         <v>531000</v>
       </c>
-      <c r="D62" s="7" t="str" cm="1">
-        <f t="array" ref="D62">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D62" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G62" s="7" t="str" cm="1">
         <f t="array" ref="G62">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I62" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>33</v>
       </c>
@@ -2670,16 +2694,20 @@
       <c r="C63" s="9">
         <v>552000</v>
       </c>
-      <c r="D63" s="7" t="str" cm="1">
-        <f t="array" ref="D63">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D63" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>trovato</v>
       </c>
       <c r="G63" s="7" t="str" cm="1">
         <f t="array" ref="G63">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I63" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>9</v>
       </c>
@@ -2689,16 +2717,20 @@
       <c r="C64" s="9">
         <v>1487000</v>
       </c>
-      <c r="D64" s="7" t="str" cm="1">
-        <f t="array" ref="D64">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D64" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G64" s="7" t="str" cm="1">
         <f t="array" ref="G64">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I64" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>65</v>
       </c>
@@ -2708,16 +2740,20 @@
       <c r="C65" s="10">
         <v>0</v>
       </c>
-      <c r="D65" s="7" t="str" cm="1">
-        <f t="array" ref="D65">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D65" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G65" s="7" t="str" cm="1">
         <f t="array" ref="G65">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I65" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>9</v>
       </c>
@@ -2727,16 +2763,20 @@
       <c r="C66" s="9">
         <v>101000</v>
       </c>
-      <c r="D66" s="7" t="str" cm="1">
-        <f t="array" ref="D66">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D66" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G66" s="7" t="str" cm="1">
         <f t="array" ref="G66">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I66" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>70</v>
       </c>
@@ -2746,16 +2786,20 @@
       <c r="C67" s="9">
         <v>38000</v>
       </c>
-      <c r="D67" s="7" t="str" cm="1">
-        <f t="array" ref="D67">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D67" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G67" s="7" t="str" cm="1">
         <f t="array" ref="G67">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I67" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>70</v>
       </c>
@@ -2765,16 +2809,20 @@
       <c r="C68" s="9">
         <v>137000</v>
       </c>
-      <c r="D68" s="7" t="str" cm="1">
-        <f t="array" ref="D68">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D68" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G68" s="7" t="str" cm="1">
         <f t="array" ref="G68">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I68" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
@@ -2784,16 +2832,20 @@
       <c r="C69" s="9">
         <v>222000</v>
       </c>
-      <c r="D69" s="7" t="str" cm="1">
-        <f t="array" ref="D69">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D69" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G69" s="7" t="str" cm="1">
         <f t="array" ref="G69">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I69" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -2803,16 +2855,20 @@
       <c r="C70" s="9">
         <v>501000</v>
       </c>
-      <c r="D70" s="7" t="str" cm="1">
-        <f t="array" ref="D70">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D70" s="7" t="str">
+        <f t="shared" ref="D70:D133" si="2">IF(AND(B70="Abbigliamento",C70&gt;300000),"trovato","")</f>
         <v/>
       </c>
       <c r="G70" s="7" t="str" cm="1">
         <f t="array" ref="G70">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I70" s="7" t="str">
+        <f t="shared" ref="I70:I133" si="3">IF(AND(B70="Manuali",C70&lt;1000000), "vero","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>27</v>
       </c>
@@ -2822,16 +2878,20 @@
       <c r="C71" s="9">
         <v>428000</v>
       </c>
-      <c r="D71" s="7" t="str" cm="1">
-        <f t="array" ref="D71">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D71" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G71" s="7" t="str" cm="1">
         <f t="array" ref="G71">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I71" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>37</v>
       </c>
@@ -2841,16 +2901,20 @@
       <c r="C72" s="9">
         <v>561000</v>
       </c>
-      <c r="D72" s="7" t="str" cm="1">
-        <f t="array" ref="D72">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D72" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G72" s="7" t="str" cm="1">
         <f t="array" ref="G72">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I72" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>60</v>
       </c>
@@ -2860,16 +2924,20 @@
       <c r="C73" s="9">
         <v>1578000</v>
       </c>
-      <c r="D73" s="7" t="str" cm="1">
-        <f t="array" ref="D73">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D73" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G73" s="7" t="str" cm="1">
         <f t="array" ref="G73">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I73" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>23</v>
       </c>
@@ -2879,16 +2947,20 @@
       <c r="C74" s="9">
         <v>34000</v>
       </c>
-      <c r="D74" s="7" t="str" cm="1">
-        <f t="array" ref="D74">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D74" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G74" s="7" t="str" cm="1">
         <f t="array" ref="G74">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I74" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>71</v>
       </c>
@@ -2898,16 +2970,20 @@
       <c r="C75" s="9">
         <v>20000</v>
       </c>
-      <c r="D75" s="7" t="str" cm="1">
-        <f t="array" ref="D75">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D75" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G75" s="7" t="str" cm="1">
         <f t="array" ref="G75">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I75" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>25</v>
       </c>
@@ -2917,16 +2993,20 @@
       <c r="C76" s="9">
         <v>23000</v>
       </c>
-      <c r="D76" s="7" t="str" cm="1">
-        <f t="array" ref="D76">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D76" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G76" s="7" t="str" cm="1">
         <f t="array" ref="G76">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I76" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>73</v>
       </c>
@@ -2936,16 +3016,20 @@
       <c r="C77" s="9">
         <v>98000</v>
       </c>
-      <c r="D77" s="7" t="str" cm="1">
-        <f t="array" ref="D77">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D77" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G77" s="7" t="str" cm="1">
         <f t="array" ref="G77">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I77" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>62</v>
       </c>
@@ -2955,16 +3039,20 @@
       <c r="C78" s="9">
         <v>251000</v>
       </c>
-      <c r="D78" s="7" t="str" cm="1">
-        <f t="array" ref="D78">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D78" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G78" s="7" t="str" cm="1">
         <f t="array" ref="G78">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I78" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>33</v>
       </c>
@@ -2974,16 +3062,20 @@
       <c r="C79" s="9">
         <v>15000</v>
       </c>
-      <c r="D79" s="7" t="str" cm="1">
-        <f t="array" ref="D79">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D79" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G79" s="7" t="str" cm="1">
         <f t="array" ref="G79">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I79" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>32</v>
       </c>
@@ -2993,16 +3085,20 @@
       <c r="C80" s="9">
         <v>14000</v>
       </c>
-      <c r="D80" s="7" t="str" cm="1">
-        <f t="array" ref="D80">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D80" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G80" s="7" t="str" cm="1">
         <f t="array" ref="G80">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I80" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>74</v>
       </c>
@@ -3012,16 +3108,20 @@
       <c r="C81" s="10">
         <v>0</v>
       </c>
-      <c r="D81" s="7" t="str" cm="1">
-        <f t="array" ref="D81">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D81" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G81" s="7" t="str" cm="1">
         <f t="array" ref="G81">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I81" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>74</v>
       </c>
@@ -3031,16 +3131,20 @@
       <c r="C82" s="9">
         <v>399000</v>
       </c>
-      <c r="D82" s="7" t="str" cm="1">
-        <f t="array" ref="D82">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D82" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G82" s="7" t="str" cm="1">
         <f t="array" ref="G82">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I82" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>63</v>
       </c>
@@ -3050,16 +3154,20 @@
       <c r="C83" s="9">
         <v>259000</v>
       </c>
-      <c r="D83" s="7" t="str" cm="1">
-        <f t="array" ref="D83">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D83" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G83" s="7" t="str" cm="1">
         <f t="array" ref="G83">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I83" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>61</v>
       </c>
@@ -3069,16 +3177,20 @@
       <c r="C84" s="9">
         <v>324000</v>
       </c>
-      <c r="D84" s="7" t="str" cm="1">
-        <f t="array" ref="D84">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D84" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>trovato</v>
       </c>
       <c r="G84" s="7" t="str" cm="1">
         <f t="array" ref="G84">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I84" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>41</v>
       </c>
@@ -3088,16 +3200,20 @@
       <c r="C85" s="9">
         <v>378000</v>
       </c>
-      <c r="D85" s="7" t="str" cm="1">
-        <f t="array" ref="D85">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D85" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>trovato</v>
       </c>
       <c r="G85" s="7" t="str" cm="1">
         <f t="array" ref="G85">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I85" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>193</v>
       </c>
@@ -3107,16 +3223,20 @@
       <c r="C86" s="9">
         <v>469000</v>
       </c>
-      <c r="D86" s="7" t="str" cm="1">
-        <f t="array" ref="D86">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D86" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G86" s="7" t="str" cm="1">
         <f t="array" ref="G86">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I86" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>62</v>
       </c>
@@ -3126,16 +3246,20 @@
       <c r="C87" s="9">
         <v>556000</v>
       </c>
-      <c r="D87" s="7" t="str" cm="1">
-        <f t="array" ref="D87">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D87" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G87" s="7" t="str" cm="1">
         <f t="array" ref="G87">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I87" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>25</v>
       </c>
@@ -3145,16 +3269,20 @@
       <c r="C88" s="9">
         <v>476000</v>
       </c>
-      <c r="D88" s="7" t="str" cm="1">
-        <f t="array" ref="D88">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D88" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G88" s="7" t="str" cm="1">
         <f t="array" ref="G88">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I88" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>13</v>
       </c>
@@ -3164,16 +3292,20 @@
       <c r="C89" s="9">
         <v>477000</v>
       </c>
-      <c r="D89" s="7" t="str" cm="1">
-        <f t="array" ref="D89">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D89" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G89" s="7" t="str" cm="1">
         <f t="array" ref="G89">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I89" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>34</v>
       </c>
@@ -3183,16 +3315,20 @@
       <c r="C90" s="9">
         <v>556000</v>
       </c>
-      <c r="D90" s="7" t="str" cm="1">
-        <f t="array" ref="D90">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D90" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G90" s="7" t="str" cm="1">
         <f t="array" ref="G90">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I90" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>193</v>
       </c>
@@ -3202,16 +3338,20 @@
       <c r="C91" s="9">
         <v>695000</v>
       </c>
-      <c r="D91" s="7" t="str" cm="1">
-        <f t="array" ref="D91">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D91" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G91" s="7" t="str" cm="1">
         <f t="array" ref="G91">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I91" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
@@ -3221,16 +3361,20 @@
       <c r="C92" s="9">
         <v>1279000</v>
       </c>
-      <c r="D92" s="7" t="str" cm="1">
-        <f t="array" ref="D92">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D92" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G92" s="7" t="str" cm="1">
         <f t="array" ref="G92">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I92" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>55</v>
       </c>
@@ -3240,16 +3384,20 @@
       <c r="C93" s="9">
         <v>35000</v>
       </c>
-      <c r="D93" s="7" t="str" cm="1">
-        <f t="array" ref="D93">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D93" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G93" s="7" t="str" cm="1">
         <f t="array" ref="G93">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I93" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>7</v>
       </c>
@@ -3259,16 +3407,20 @@
       <c r="C94" s="9">
         <v>175000</v>
       </c>
-      <c r="D94" s="7" t="str" cm="1">
-        <f t="array" ref="D94">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D94" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G94" s="7" t="str" cm="1">
         <f t="array" ref="G94">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I94" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>vero</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>62</v>
       </c>
@@ -3278,16 +3430,20 @@
       <c r="C95" s="9">
         <v>272000</v>
       </c>
-      <c r="D95" s="7" t="str" cm="1">
-        <f t="array" ref="D95">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D95" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G95" s="7" t="str" cm="1">
         <f t="array" ref="G95">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I95" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>67</v>
       </c>
@@ -3297,16 +3453,20 @@
       <c r="C96" s="9">
         <v>198000</v>
       </c>
-      <c r="D96" s="7" t="str" cm="1">
-        <f t="array" ref="D96">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D96" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G96" s="7" t="str" cm="1">
         <f t="array" ref="G96">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I96" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>44</v>
       </c>
@@ -3316,16 +3476,20 @@
       <c r="C97" s="9">
         <v>290000</v>
       </c>
-      <c r="D97" s="7" t="str" cm="1">
-        <f t="array" ref="D97">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D97" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G97" s="7" t="str" cm="1">
         <f t="array" ref="G97">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I97" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>11</v>
       </c>
@@ -3335,16 +3499,20 @@
       <c r="C98" s="9">
         <v>589000</v>
       </c>
-      <c r="D98" s="7" t="str" cm="1">
-        <f t="array" ref="D98">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D98" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G98" s="7" t="str" cm="1">
         <f t="array" ref="G98">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I98" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>17</v>
       </c>
@@ -3354,16 +3522,20 @@
       <c r="C99" s="9">
         <v>743000</v>
       </c>
-      <c r="D99" s="7" t="str" cm="1">
-        <f t="array" ref="D99">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D99" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G99" s="7" t="str" cm="1">
         <f t="array" ref="G99">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I99" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -3373,16 +3545,20 @@
       <c r="C100" s="9">
         <v>271000</v>
       </c>
-      <c r="D100" s="7" t="str" cm="1">
-        <f t="array" ref="D100">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D100" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G100" s="7" t="str" cm="1">
         <f t="array" ref="G100">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I100" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>31</v>
       </c>
@@ -3392,16 +3568,20 @@
       <c r="C101" s="9">
         <v>632000</v>
       </c>
-      <c r="D101" s="7" t="str" cm="1">
-        <f t="array" ref="D101">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D101" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>trovato</v>
       </c>
       <c r="G101" s="7" t="str" cm="1">
         <f t="array" ref="G101">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I101" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>25</v>
       </c>
@@ -3411,16 +3591,20 @@
       <c r="C102" s="9">
         <v>90000</v>
       </c>
-      <c r="D102" s="7" t="str" cm="1">
-        <f t="array" ref="D102">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D102" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G102" s="7" t="str" cm="1">
         <f t="array" ref="G102">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I102" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>9</v>
       </c>
@@ -3430,16 +3614,20 @@
       <c r="C103" s="9">
         <v>4000</v>
       </c>
-      <c r="D103" s="7" t="str" cm="1">
-        <f t="array" ref="D103">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D103" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G103" s="7" t="str" cm="1">
         <f t="array" ref="G103">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I103" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>59</v>
       </c>
@@ -3449,16 +3637,20 @@
       <c r="C104" s="9">
         <v>5000</v>
       </c>
-      <c r="D104" s="7" t="str" cm="1">
-        <f t="array" ref="D104">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D104" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G104" s="7" t="str" cm="1">
         <f t="array" ref="G104">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I104" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -3468,16 +3660,20 @@
       <c r="C105" s="9">
         <v>41000</v>
       </c>
-      <c r="D105" s="7" t="str" cm="1">
-        <f t="array" ref="D105">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D105" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G105" s="7" t="str" cm="1">
         <f t="array" ref="G105">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I105" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>56</v>
       </c>
@@ -3487,16 +3683,20 @@
       <c r="C106" s="10">
         <v>0</v>
       </c>
-      <c r="D106" s="7" t="str" cm="1">
-        <f t="array" ref="D106">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D106" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G106" s="7" t="str" cm="1">
         <f t="array" ref="G106">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I106" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>31</v>
       </c>
@@ -3506,16 +3706,20 @@
       <c r="C107" s="9">
         <v>737000</v>
       </c>
-      <c r="D107" s="7" t="str" cm="1">
-        <f t="array" ref="D107">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D107" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>trovato</v>
       </c>
       <c r="G107" s="7" t="str" cm="1">
         <f t="array" ref="G107">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I107" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>59</v>
       </c>
@@ -3525,16 +3729,20 @@
       <c r="C108" s="9">
         <v>910000</v>
       </c>
-      <c r="D108" s="7" t="str" cm="1">
-        <f t="array" ref="D108">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D108" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G108" s="7" t="str" cm="1">
         <f t="array" ref="G108">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I108" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>56</v>
       </c>
@@ -3544,16 +3752,20 @@
       <c r="C109" s="9">
         <v>241000</v>
       </c>
-      <c r="D109" s="7" t="str" cm="1">
-        <f t="array" ref="D109">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D109" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G109" s="7" t="str" cm="1">
         <f t="array" ref="G109">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I109" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>56</v>
       </c>
@@ -3563,16 +3775,20 @@
       <c r="C110" s="10">
         <v>0</v>
       </c>
-      <c r="D110" s="7" t="str" cm="1">
-        <f t="array" ref="D110">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D110" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G110" s="7" t="str" cm="1">
         <f t="array" ref="G110">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I110" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>5</v>
       </c>
@@ -3582,16 +3798,20 @@
       <c r="C111" s="9">
         <v>112000</v>
       </c>
-      <c r="D111" s="7" t="str" cm="1">
-        <f t="array" ref="D111">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D111" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G111" s="7" t="str" cm="1">
         <f t="array" ref="G111">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I111" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>47</v>
       </c>
@@ -3601,16 +3821,20 @@
       <c r="C112" s="9">
         <v>113000</v>
       </c>
-      <c r="D112" s="7" t="str" cm="1">
-        <f t="array" ref="D112">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D112" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G112" s="7" t="str" cm="1">
         <f t="array" ref="G112">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I112" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>39</v>
       </c>
@@ -3620,16 +3844,20 @@
       <c r="C113" s="9">
         <v>121000</v>
       </c>
-      <c r="D113" s="7" t="str" cm="1">
-        <f t="array" ref="D113">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D113" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G113" s="7" t="str" cm="1">
         <f t="array" ref="G113">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I113" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>36</v>
       </c>
@@ -3639,16 +3867,20 @@
       <c r="C114" s="9">
         <v>160000</v>
       </c>
-      <c r="D114" s="7" t="str" cm="1">
-        <f t="array" ref="D114">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D114" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G114" s="7" t="str" cm="1">
         <f t="array" ref="G114">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I114" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>49</v>
       </c>
@@ -3658,16 +3890,20 @@
       <c r="C115" s="9">
         <v>195000</v>
       </c>
-      <c r="D115" s="7" t="str" cm="1">
-        <f t="array" ref="D115">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D115" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G115" s="7" t="str" cm="1">
         <f t="array" ref="G115">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I115" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>20</v>
       </c>
@@ -3677,16 +3913,20 @@
       <c r="C116" s="9">
         <v>215000</v>
       </c>
-      <c r="D116" s="7" t="str" cm="1">
-        <f t="array" ref="D116">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D116" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G116" s="7" t="str" cm="1">
         <f t="array" ref="G116">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I116" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>18</v>
       </c>
@@ -3696,16 +3936,20 @@
       <c r="C117" s="9">
         <v>321000</v>
       </c>
-      <c r="D117" s="7" t="str" cm="1">
-        <f t="array" ref="D117">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D117" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G117" s="7" t="str" cm="1">
         <f t="array" ref="G117">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I117" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>46</v>
       </c>
@@ -3715,16 +3959,20 @@
       <c r="C118" s="9">
         <v>614000</v>
       </c>
-      <c r="D118" s="7" t="str" cm="1">
-        <f t="array" ref="D118">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D118" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G118" s="7" t="str" cm="1">
         <f t="array" ref="G118">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I118" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>67</v>
       </c>
@@ -3734,16 +3982,20 @@
       <c r="C119" s="10">
         <v>0</v>
       </c>
-      <c r="D119" s="7" t="str" cm="1">
-        <f t="array" ref="D119">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D119" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G119" s="7" t="str" cm="1">
         <f t="array" ref="G119">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I119" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>21</v>
       </c>
@@ -3753,16 +4005,20 @@
       <c r="C120" s="9">
         <v>30000</v>
       </c>
-      <c r="D120" s="7" t="str" cm="1">
-        <f t="array" ref="D120">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D120" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G120" s="7" t="str" cm="1">
         <f t="array" ref="G120">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I120" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>61</v>
       </c>
@@ -3772,16 +4028,20 @@
       <c r="C121" s="9">
         <v>34000</v>
       </c>
-      <c r="D121" s="7" t="str" cm="1">
-        <f t="array" ref="D121">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D121" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G121" s="7" t="str" cm="1">
         <f t="array" ref="G121">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I121" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>42</v>
       </c>
@@ -3791,16 +4051,20 @@
       <c r="C122" s="9">
         <v>35000</v>
       </c>
-      <c r="D122" s="7" t="str" cm="1">
-        <f t="array" ref="D122">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D122" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G122" s="7" t="str" cm="1">
         <f t="array" ref="G122">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I122" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>44</v>
       </c>
@@ -3810,16 +4074,20 @@
       <c r="C123" s="9">
         <v>77000</v>
       </c>
-      <c r="D123" s="7" t="str" cm="1">
-        <f t="array" ref="D123">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D123" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G123" s="7" t="str" cm="1">
         <f t="array" ref="G123">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I123" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>189</v>
       </c>
@@ -3829,16 +4097,20 @@
       <c r="C124" s="9">
         <v>723000</v>
       </c>
-      <c r="D124" s="7" t="str" cm="1">
-        <f t="array" ref="D124">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D124" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G124" s="7" t="str" cm="1">
         <f t="array" ref="G124">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I124" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>33</v>
       </c>
@@ -3848,16 +4120,20 @@
       <c r="C125" s="9">
         <v>742000</v>
       </c>
-      <c r="D125" s="7" t="str" cm="1">
-        <f t="array" ref="D125">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D125" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>trovato</v>
       </c>
       <c r="G125" s="7" t="str" cm="1">
         <f t="array" ref="G125">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I125" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>20</v>
       </c>
@@ -3867,16 +4143,20 @@
       <c r="C126" s="9">
         <v>778000</v>
       </c>
-      <c r="D126" s="7" t="str" cm="1">
-        <f t="array" ref="D126">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D126" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G126" s="7" t="str" cm="1">
         <f t="array" ref="G126">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I126" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>45</v>
       </c>
@@ -3886,16 +4166,20 @@
       <c r="C127" s="9">
         <v>878000</v>
       </c>
-      <c r="D127" s="7" t="str" cm="1">
-        <f t="array" ref="D127">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D127" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G127" s="7" t="str" cm="1">
         <f t="array" ref="G127">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I127" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>50</v>
       </c>
@@ -3905,16 +4189,20 @@
       <c r="C128" s="9">
         <v>883000</v>
       </c>
-      <c r="D128" s="7" t="str" cm="1">
-        <f t="array" ref="D128">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D128" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G128" s="7" t="str" cm="1">
         <f t="array" ref="G128">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I128" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>21</v>
       </c>
@@ -3924,16 +4212,20 @@
       <c r="C129" s="9">
         <v>913000</v>
       </c>
-      <c r="D129" s="7" t="str" cm="1">
-        <f t="array" ref="D129">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D129" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G129" s="7" t="str" cm="1">
         <f t="array" ref="G129">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I129" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>60</v>
       </c>
@@ -3943,16 +4235,20 @@
       <c r="C130" s="9">
         <v>1125000</v>
       </c>
-      <c r="D130" s="7" t="str" cm="1">
-        <f t="array" ref="D130">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D130" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G130" s="7" t="str" cm="1">
         <f t="array" ref="G130">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I130" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>69</v>
       </c>
@@ -3962,16 +4258,20 @@
       <c r="C131" s="10">
         <v>0</v>
       </c>
-      <c r="D131" s="7" t="str" cm="1">
-        <f t="array" ref="D131">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D131" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G131" s="7" t="str" cm="1">
         <f t="array" ref="G131">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I131" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>69</v>
       </c>
@@ -3981,16 +4281,20 @@
       <c r="C132" s="9">
         <v>33000</v>
       </c>
-      <c r="D132" s="7" t="str" cm="1">
-        <f t="array" ref="D132">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D132" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G132" s="7" t="str" cm="1">
         <f t="array" ref="G132">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I132" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>57</v>
       </c>
@@ -4000,16 +4304,20 @@
       <c r="C133" s="9">
         <v>52000</v>
       </c>
-      <c r="D133" s="7" t="str" cm="1">
-        <f t="array" ref="D133">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D133" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G133" s="7" t="str" cm="1">
         <f t="array" ref="G133">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I133" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>53</v>
       </c>
@@ -4019,16 +4327,20 @@
       <c r="C134" s="9">
         <v>97000</v>
       </c>
-      <c r="D134" s="7" t="str" cm="1">
-        <f t="array" ref="D134">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D134" s="7" t="str">
+        <f t="shared" ref="D134:D197" si="4">IF(AND(B134="Abbigliamento",C134&gt;300000),"trovato","")</f>
         <v/>
       </c>
       <c r="G134" s="7" t="str" cm="1">
         <f t="array" ref="G134">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I134" s="7" t="str">
+        <f t="shared" ref="I134:I197" si="5">IF(AND(B134="Manuali",C134&lt;1000000), "vero","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>5</v>
       </c>
@@ -4038,16 +4350,20 @@
       <c r="C135" s="10">
         <v>0</v>
       </c>
-      <c r="D135" s="7" t="str" cm="1">
-        <f t="array" ref="D135">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D135" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G135" s="7" t="str" cm="1">
         <f t="array" ref="G135">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I135" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>31</v>
       </c>
@@ -4057,16 +4373,20 @@
       <c r="C136" s="9">
         <v>131000</v>
       </c>
-      <c r="D136" s="7" t="str" cm="1">
-        <f t="array" ref="D136">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D136" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G136" s="7" t="str" cm="1">
         <f t="array" ref="G136">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I136" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>31</v>
       </c>
@@ -4076,16 +4396,20 @@
       <c r="C137" s="9">
         <v>169000</v>
       </c>
-      <c r="D137" s="7" t="str" cm="1">
-        <f t="array" ref="D137">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D137" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G137" s="7" t="str" cm="1">
         <f t="array" ref="G137">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I137" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>47</v>
       </c>
@@ -4095,16 +4419,20 @@
       <c r="C138" s="9">
         <v>190000</v>
       </c>
-      <c r="D138" s="7" t="str" cm="1">
-        <f t="array" ref="D138">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D138" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G138" s="7" t="str" cm="1">
         <f t="array" ref="G138">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I138" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>25</v>
       </c>
@@ -4114,16 +4442,20 @@
       <c r="C139" s="9">
         <v>191000</v>
       </c>
-      <c r="D139" s="7" t="str" cm="1">
-        <f t="array" ref="D139">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D139" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G139" s="7" t="str" cm="1">
         <f t="array" ref="G139">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I139" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>65</v>
       </c>
@@ -4133,16 +4465,20 @@
       <c r="C140" s="9">
         <v>197000</v>
       </c>
-      <c r="D140" s="7" t="str" cm="1">
-        <f t="array" ref="D140">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D140" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G140" s="7" t="str" cm="1">
         <f t="array" ref="G140">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I140" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>66</v>
       </c>
@@ -4152,16 +4488,20 @@
       <c r="C141" s="9">
         <v>201000</v>
       </c>
-      <c r="D141" s="7" t="str" cm="1">
-        <f t="array" ref="D141">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D141" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G141" s="7" t="str" cm="1">
         <f t="array" ref="G141">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I141" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>33</v>
       </c>
@@ -4171,16 +4511,20 @@
       <c r="C142" s="9">
         <v>220000</v>
       </c>
-      <c r="D142" s="7" t="str" cm="1">
-        <f t="array" ref="D142">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D142" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G142" s="7" t="str" cm="1">
         <f t="array" ref="G142">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I142" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>9</v>
       </c>
@@ -4190,16 +4534,20 @@
       <c r="C143" s="9">
         <v>250000</v>
       </c>
-      <c r="D143" s="7" t="str" cm="1">
-        <f t="array" ref="D143">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D143" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G143" s="7" t="str" cm="1">
         <f t="array" ref="G143">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I143" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>65</v>
       </c>
@@ -4209,16 +4557,20 @@
       <c r="C144" s="9">
         <v>257000</v>
       </c>
-      <c r="D144" s="7" t="str" cm="1">
-        <f t="array" ref="D144">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D144" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G144" s="7" t="str" cm="1">
         <f t="array" ref="G144">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I144" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>9</v>
       </c>
@@ -4228,16 +4580,20 @@
       <c r="C145" s="9">
         <v>278000</v>
       </c>
-      <c r="D145" s="7" t="str" cm="1">
-        <f t="array" ref="D145">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D145" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G145" s="7" t="str" cm="1">
         <f t="array" ref="G145">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I145" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>70</v>
       </c>
@@ -4247,16 +4603,20 @@
       <c r="C146" s="9">
         <v>280000</v>
       </c>
-      <c r="D146" s="7" t="str" cm="1">
-        <f t="array" ref="D146">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D146" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G146" s="7" t="str" cm="1">
         <f t="array" ref="G146">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I146" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>70</v>
       </c>
@@ -4266,16 +4626,20 @@
       <c r="C147" s="9">
         <v>300000</v>
       </c>
-      <c r="D147" s="7" t="str" cm="1">
-        <f t="array" ref="D147">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D147" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G147" s="7" t="str" cm="1">
         <f t="array" ref="G147">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I147" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>73</v>
       </c>
@@ -4285,16 +4649,20 @@
       <c r="C148" s="9">
         <v>305000</v>
       </c>
-      <c r="D148" s="7" t="str" cm="1">
-        <f t="array" ref="D148">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D148" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G148" s="7" t="str" cm="1">
         <f t="array" ref="G148">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I148" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>71</v>
       </c>
@@ -4304,16 +4672,20 @@
       <c r="C149" s="9">
         <v>335000</v>
       </c>
-      <c r="D149" s="7" t="str" cm="1">
-        <f t="array" ref="D149">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D149" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G149" s="7" t="str" cm="1">
         <f t="array" ref="G149">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I149" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>27</v>
       </c>
@@ -4323,16 +4695,20 @@
       <c r="C150" s="9">
         <v>360000</v>
       </c>
-      <c r="D150" s="7" t="str" cm="1">
-        <f t="array" ref="D150">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D150" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G150" s="7" t="str" cm="1">
         <f t="array" ref="G150">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I150" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>37</v>
       </c>
@@ -4342,16 +4718,20 @@
       <c r="C151" s="9">
         <v>429000</v>
       </c>
-      <c r="D151" s="7" t="str" cm="1">
-        <f t="array" ref="D151">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D151" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G151" s="7" t="str" cm="1">
         <f t="array" ref="G151">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I151" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>60</v>
       </c>
@@ -4361,16 +4741,20 @@
       <c r="C152" s="9">
         <v>701000</v>
       </c>
-      <c r="D152" s="7" t="str" cm="1">
-        <f t="array" ref="D152">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D152" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G152" s="7" t="str" cm="1">
         <f t="array" ref="G152">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I152" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>23</v>
       </c>
@@ -4378,16 +4762,20 @@
         <v>24</v>
       </c>
       <c r="C153" s="10"/>
-      <c r="D153" s="7" t="str" cm="1">
-        <f t="array" ref="D153">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D153" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G153" s="7" t="str" cm="1">
         <f t="array" ref="G153">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I153" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -4397,16 +4785,20 @@
       <c r="C154" s="9">
         <v>90000</v>
       </c>
-      <c r="D154" s="7" t="str" cm="1">
-        <f t="array" ref="D154">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D154" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G154" s="7" t="str" cm="1">
         <f t="array" ref="G154">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I154" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>25</v>
       </c>
@@ -4416,16 +4808,20 @@
       <c r="C155" s="9">
         <v>69000</v>
       </c>
-      <c r="D155" s="7" t="str" cm="1">
-        <f t="array" ref="D155">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D155" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G155" s="7" t="str" cm="1">
         <f t="array" ref="G155">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I155" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>73</v>
       </c>
@@ -4435,16 +4831,20 @@
       <c r="C156" s="9">
         <v>89000</v>
       </c>
-      <c r="D156" s="7" t="str" cm="1">
-        <f t="array" ref="D156">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D156" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G156" s="7" t="str" cm="1">
         <f t="array" ref="G156">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I156" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>62</v>
       </c>
@@ -4454,16 +4854,20 @@
       <c r="C157" s="9">
         <v>138000</v>
       </c>
-      <c r="D157" s="7" t="str" cm="1">
-        <f t="array" ref="D157">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D157" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G157" s="7" t="str" cm="1">
         <f t="array" ref="G157">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I157" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>33</v>
       </c>
@@ -4473,16 +4877,20 @@
       <c r="C158" s="9">
         <v>196000</v>
       </c>
-      <c r="D158" s="7" t="str" cm="1">
-        <f t="array" ref="D158">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D158" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G158" s="7" t="str" cm="1">
         <f t="array" ref="G158">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I158" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>32</v>
       </c>
@@ -4492,16 +4900,20 @@
       <c r="C159" s="9">
         <v>329000</v>
       </c>
-      <c r="D159" s="7" t="str" cm="1">
-        <f t="array" ref="D159">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D159" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G159" s="7" t="str" cm="1">
         <f t="array" ref="G159">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I159" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>74</v>
       </c>
@@ -4511,16 +4923,20 @@
       <c r="C160" s="9">
         <v>295000</v>
       </c>
-      <c r="D160" s="7" t="str" cm="1">
-        <f t="array" ref="D160">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D160" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G160" s="7" t="str" cm="1">
         <f t="array" ref="G160">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I160" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>74</v>
       </c>
@@ -4530,16 +4946,20 @@
       <c r="C161" s="9">
         <v>19000</v>
       </c>
-      <c r="D161" s="7" t="str" cm="1">
-        <f t="array" ref="D161">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D161" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G161" s="7" t="str" cm="1">
         <f t="array" ref="G161">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I161" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>63</v>
       </c>
@@ -4549,16 +4969,20 @@
       <c r="C162" s="9">
         <v>26000</v>
       </c>
-      <c r="D162" s="7" t="str" cm="1">
-        <f t="array" ref="D162">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D162" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G162" s="7" t="str" cm="1">
         <f t="array" ref="G162">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I162" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>61</v>
       </c>
@@ -4568,16 +4992,20 @@
       <c r="C163" s="9">
         <v>28000</v>
       </c>
-      <c r="D163" s="7" t="str" cm="1">
-        <f t="array" ref="D163">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D163" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G163" s="7" t="str" cm="1">
         <f t="array" ref="G163">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I163" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>41</v>
       </c>
@@ -4587,16 +5015,20 @@
       <c r="C164" s="9">
         <v>56000</v>
       </c>
-      <c r="D164" s="7" t="str" cm="1">
-        <f t="array" ref="D164">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D164" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G164" s="7" t="str" cm="1">
         <f t="array" ref="G164">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I164" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>193</v>
       </c>
@@ -4606,16 +5038,20 @@
       <c r="C165" s="10">
         <v>0</v>
       </c>
-      <c r="D165" s="7" t="str" cm="1">
-        <f t="array" ref="D165">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D165" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G165" s="7" t="str" cm="1">
         <f t="array" ref="G165">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I165" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>62</v>
       </c>
@@ -4625,16 +5061,20 @@
       <c r="C166" s="9">
         <v>216000</v>
       </c>
-      <c r="D166" s="7" t="str" cm="1">
-        <f t="array" ref="D166">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D166" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G166" s="7" t="str" cm="1">
         <f t="array" ref="G166">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I166" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>25</v>
       </c>
@@ -4644,16 +5084,20 @@
       <c r="C167" s="9">
         <v>250000</v>
       </c>
-      <c r="D167" s="7" t="str" cm="1">
-        <f t="array" ref="D167">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D167" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G167" s="7" t="str" cm="1">
         <f t="array" ref="G167">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I167" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>13</v>
       </c>
@@ -4663,16 +5107,20 @@
       <c r="C168" s="9">
         <v>382000</v>
       </c>
-      <c r="D168" s="7" t="str" cm="1">
-        <f t="array" ref="D168">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D168" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G168" s="7" t="str" cm="1">
         <f t="array" ref="G168">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I168" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -4682,16 +5130,20 @@
       <c r="C169" s="9">
         <v>524000</v>
       </c>
-      <c r="D169" s="7" t="str" cm="1">
-        <f t="array" ref="D169">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D169" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G169" s="7" t="str" cm="1">
         <f t="array" ref="G169">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I169" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>193</v>
       </c>
@@ -4701,16 +5153,20 @@
       <c r="C170" s="9">
         <v>757000</v>
       </c>
-      <c r="D170" s="7" t="str" cm="1">
-        <f t="array" ref="D170">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D170" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G170" s="7" t="str" cm="1">
         <f t="array" ref="G170">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I170" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>15</v>
       </c>
@@ -4720,16 +5176,20 @@
       <c r="C171" s="9">
         <v>1045000</v>
       </c>
-      <c r="D171" s="7" t="str" cm="1">
-        <f t="array" ref="D171">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D171" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G171" s="7" t="str" cm="1">
         <f t="array" ref="G171">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I171" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>55</v>
       </c>
@@ -4739,16 +5199,20 @@
       <c r="C172" s="9">
         <v>1568000</v>
       </c>
-      <c r="D172" s="7" t="str" cm="1">
-        <f t="array" ref="D172">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D172" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G172" s="7" t="str" cm="1">
         <f t="array" ref="G172">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I172" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>7</v>
       </c>
@@ -4758,16 +5222,20 @@
       <c r="C173" s="9">
         <v>117000</v>
       </c>
-      <c r="D173" s="7" t="str" cm="1">
-        <f t="array" ref="D173">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D173" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G173" s="7" t="str" cm="1">
         <f t="array" ref="G173">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I173" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>vero</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>62</v>
       </c>
@@ -4777,16 +5245,20 @@
       <c r="C174" s="9">
         <v>158000</v>
       </c>
-      <c r="D174" s="7" t="str" cm="1">
-        <f t="array" ref="D174">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D174" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G174" s="7" t="str" cm="1">
         <f t="array" ref="G174">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I174" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>67</v>
       </c>
@@ -4796,16 +5268,20 @@
       <c r="C175" s="9">
         <v>260000</v>
       </c>
-      <c r="D175" s="7" t="str" cm="1">
-        <f t="array" ref="D175">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D175" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G175" s="7" t="str" cm="1">
         <f t="array" ref="G175">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I175" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>44</v>
       </c>
@@ -4815,16 +5291,20 @@
       <c r="C176" s="9">
         <v>193000</v>
       </c>
-      <c r="D176" s="7" t="str" cm="1">
-        <f t="array" ref="D176">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D176" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G176" s="7" t="str" cm="1">
         <f t="array" ref="G176">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I176" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>11</v>
       </c>
@@ -4834,16 +5314,20 @@
       <c r="C177" s="9">
         <v>270000</v>
       </c>
-      <c r="D177" s="7" t="str" cm="1">
-        <f t="array" ref="D177">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D177" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G177" s="7" t="str" cm="1">
         <f t="array" ref="G177">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I177" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>17</v>
       </c>
@@ -4853,16 +5337,20 @@
       <c r="C178" s="9">
         <v>314000</v>
       </c>
-      <c r="D178" s="7" t="str" cm="1">
-        <f t="array" ref="D178">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D178" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G178" s="7" t="str" cm="1">
         <f t="array" ref="G178">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I178" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>52</v>
       </c>
@@ -4872,16 +5360,20 @@
       <c r="C179" s="9">
         <v>894000</v>
       </c>
-      <c r="D179" s="7" t="str" cm="1">
-        <f t="array" ref="D179">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D179" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G179" s="7" t="str" cm="1">
         <f t="array" ref="G179">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I179" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>31</v>
       </c>
@@ -4891,16 +5383,20 @@
       <c r="C180" s="9">
         <v>1040000</v>
       </c>
-      <c r="D180" s="7" t="str" cm="1">
-        <f t="array" ref="D180">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D180" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>trovato</v>
       </c>
       <c r="G180" s="7" t="str" cm="1">
         <f t="array" ref="G180">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I180" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>25</v>
       </c>
@@ -4910,16 +5406,20 @@
       <c r="C181" s="9">
         <v>8000</v>
       </c>
-      <c r="D181" s="7" t="str" cm="1">
-        <f t="array" ref="D181">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D181" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G181" s="7" t="str" cm="1">
         <f t="array" ref="G181">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I181" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>9</v>
       </c>
@@ -4929,16 +5429,20 @@
       <c r="C182" s="9">
         <v>10000</v>
       </c>
-      <c r="D182" s="7" t="str" cm="1">
-        <f t="array" ref="D182">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D182" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G182" s="7" t="str" cm="1">
         <f t="array" ref="G182">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I182" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>59</v>
       </c>
@@ -4948,16 +5452,20 @@
       <c r="C183" s="9">
         <v>24000</v>
       </c>
-      <c r="D183" s="7" t="str" cm="1">
-        <f t="array" ref="D183">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D183" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G183" s="7" t="str" cm="1">
         <f t="array" ref="G183">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I183" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>29</v>
       </c>
@@ -4967,16 +5475,20 @@
       <c r="C184" s="9">
         <v>11000</v>
       </c>
-      <c r="D184" s="7" t="str" cm="1">
-        <f t="array" ref="D184">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D184" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G184" s="7" t="str" cm="1">
         <f t="array" ref="G184">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I184" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>56</v>
       </c>
@@ -4986,16 +5498,20 @@
       <c r="C185" s="9">
         <v>10000</v>
       </c>
-      <c r="D185" s="7" t="str" cm="1">
-        <f t="array" ref="D185">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D185" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G185" s="7" t="str" cm="1">
         <f t="array" ref="G185">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I185" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>31</v>
       </c>
@@ -5005,16 +5521,20 @@
       <c r="C186" s="9">
         <v>26000</v>
       </c>
-      <c r="D186" s="7" t="str" cm="1">
-        <f t="array" ref="D186">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D186" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G186" s="7" t="str" cm="1">
         <f t="array" ref="G186">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I186" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>59</v>
       </c>
@@ -5022,16 +5542,20 @@
         <v>38</v>
       </c>
       <c r="C187" s="10"/>
-      <c r="D187" s="7" t="str" cm="1">
-        <f t="array" ref="D187">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D187" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G187" s="7" t="str" cm="1">
         <f t="array" ref="G187">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I187" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>56</v>
       </c>
@@ -5041,16 +5565,20 @@
       <c r="C188" s="9">
         <v>22000</v>
       </c>
-      <c r="D188" s="7" t="str" cm="1">
-        <f t="array" ref="D188">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D188" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G188" s="7" t="str" cm="1">
         <f t="array" ref="G188">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I188" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>56</v>
       </c>
@@ -5060,16 +5588,20 @@
       <c r="C189" s="9">
         <v>63000</v>
       </c>
-      <c r="D189" s="7" t="str" cm="1">
-        <f t="array" ref="D189">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D189" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G189" s="7" t="str" cm="1">
         <f t="array" ref="G189">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I189" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>5</v>
       </c>
@@ -5079,16 +5611,20 @@
       <c r="C190" s="9">
         <v>63000</v>
       </c>
-      <c r="D190" s="7" t="str" cm="1">
-        <f t="array" ref="D190">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D190" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G190" s="7" t="str" cm="1">
         <f t="array" ref="G190">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I190" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>47</v>
       </c>
@@ -5098,16 +5634,20 @@
       <c r="C191" s="9">
         <v>26000</v>
       </c>
-      <c r="D191" s="7" t="str" cm="1">
-        <f t="array" ref="D191">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D191" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G191" s="7" t="str" cm="1">
         <f t="array" ref="G191">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I191" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>39</v>
       </c>
@@ -5117,16 +5657,20 @@
       <c r="C192" s="9">
         <v>25000</v>
       </c>
-      <c r="D192" s="7" t="str" cm="1">
-        <f t="array" ref="D192">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D192" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G192" s="7" t="str" cm="1">
         <f t="array" ref="G192">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I192" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>36</v>
       </c>
@@ -5136,16 +5680,20 @@
       <c r="C193" s="9">
         <v>25000</v>
       </c>
-      <c r="D193" s="7" t="str" cm="1">
-        <f t="array" ref="D193">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D193" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G193" s="7" t="str" cm="1">
         <f t="array" ref="G193">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I193" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>49</v>
       </c>
@@ -5155,16 +5703,20 @@
       <c r="C194" s="9">
         <v>46000</v>
       </c>
-      <c r="D194" s="7" t="str" cm="1">
-        <f t="array" ref="D194">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D194" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G194" s="7" t="str" cm="1">
         <f t="array" ref="G194">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I194" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>20</v>
       </c>
@@ -5172,16 +5724,20 @@
         <v>10</v>
       </c>
       <c r="C195" s="10"/>
-      <c r="D195" s="7" t="str" cm="1">
-        <f t="array" ref="D195">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D195" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G195" s="7" t="str" cm="1">
         <f t="array" ref="G195">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I195" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>18</v>
       </c>
@@ -5191,16 +5747,20 @@
       <c r="C196" s="9">
         <v>37000</v>
       </c>
-      <c r="D196" s="7" t="str" cm="1">
-        <f t="array" ref="D196">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D196" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G196" s="7" t="str" cm="1">
         <f t="array" ref="G196">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I196" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -5210,16 +5770,20 @@
       <c r="C197" s="9">
         <v>37000</v>
       </c>
-      <c r="D197" s="7" t="str" cm="1">
-        <f t="array" ref="D197">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D197" s="7" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G197" s="7" t="str" cm="1">
         <f t="array" ref="G197">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I197" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>67</v>
       </c>
@@ -5229,16 +5793,20 @@
       <c r="C198" s="9">
         <v>11000</v>
       </c>
-      <c r="D198" s="7" t="str" cm="1">
-        <f t="array" ref="D198">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D198" s="7" t="str">
+        <f t="shared" ref="D198:D261" si="6">IF(AND(B198="Abbigliamento",C198&gt;300000),"trovato","")</f>
         <v/>
       </c>
       <c r="G198" s="7" t="str" cm="1">
         <f t="array" ref="G198">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I198" s="7" t="str">
+        <f t="shared" ref="I198:I261" si="7">IF(AND(B198="Manuali",C198&lt;1000000), "vero","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>21</v>
       </c>
@@ -5248,16 +5816,20 @@
       <c r="C199" s="9">
         <v>46000</v>
       </c>
-      <c r="D199" s="7" t="str" cm="1">
-        <f t="array" ref="D199">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D199" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G199" s="7" t="str" cm="1">
         <f t="array" ref="G199">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I199" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>61</v>
       </c>
@@ -5267,16 +5839,20 @@
       <c r="C200" s="9">
         <v>19000</v>
       </c>
-      <c r="D200" s="7" t="str" cm="1">
-        <f t="array" ref="D200">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D200" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G200" s="7" t="str" cm="1">
         <f t="array" ref="G200">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I200" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>42</v>
       </c>
@@ -5286,16 +5862,20 @@
       <c r="C201" s="9">
         <v>13000</v>
       </c>
-      <c r="D201" s="7" t="str" cm="1">
-        <f t="array" ref="D201">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D201" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G201" s="7" t="str" cm="1">
         <f t="array" ref="G201">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I201" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>44</v>
       </c>
@@ -5305,16 +5885,20 @@
       <c r="C202" s="9">
         <v>26000</v>
       </c>
-      <c r="D202" s="7" t="str" cm="1">
-        <f t="array" ref="D202">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D202" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G202" s="7" t="str" cm="1">
         <f t="array" ref="G202">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I202" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>190</v>
       </c>
@@ -5324,16 +5908,20 @@
       <c r="C203" s="9">
         <v>26000</v>
       </c>
-      <c r="D203" s="7" t="str" cm="1">
-        <f t="array" ref="D203">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D203" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G203" s="7" t="str" cm="1">
         <f t="array" ref="G203">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I203" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>33</v>
       </c>
@@ -5343,16 +5931,20 @@
       <c r="C204" s="9">
         <v>20000</v>
       </c>
-      <c r="D204" s="7" t="str" cm="1">
-        <f t="array" ref="D204">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D204" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G204" s="7" t="str" cm="1">
         <f t="array" ref="G204">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I204" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>20</v>
       </c>
@@ -5362,16 +5954,20 @@
       <c r="C205" s="9">
         <v>49000</v>
       </c>
-      <c r="D205" s="7" t="str" cm="1">
-        <f t="array" ref="D205">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D205" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G205" s="7" t="str" cm="1">
         <f t="array" ref="G205">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I205" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>45</v>
       </c>
@@ -5381,16 +5977,20 @@
       <c r="C206" s="9">
         <v>33000</v>
       </c>
-      <c r="D206" s="7" t="str" cm="1">
-        <f t="array" ref="D206">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D206" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G206" s="7" t="str" cm="1">
         <f t="array" ref="G206">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I206" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>50</v>
       </c>
@@ -5400,16 +6000,20 @@
       <c r="C207" s="9">
         <v>68000</v>
       </c>
-      <c r="D207" s="7" t="str" cm="1">
-        <f t="array" ref="D207">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D207" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G207" s="7" t="str" cm="1">
         <f t="array" ref="G207">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I207" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>21</v>
       </c>
@@ -5419,16 +6023,20 @@
       <c r="C208" s="9">
         <v>33000</v>
       </c>
-      <c r="D208" s="7" t="str" cm="1">
-        <f t="array" ref="D208">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D208" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G208" s="7" t="str" cm="1">
         <f t="array" ref="G208">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I208" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>60</v>
       </c>
@@ -5438,16 +6046,20 @@
       <c r="C209" s="9">
         <v>147000</v>
       </c>
-      <c r="D209" s="7" t="str" cm="1">
-        <f t="array" ref="D209">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D209" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G209" s="7" t="str" cm="1">
         <f t="array" ref="G209">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I209" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>69</v>
       </c>
@@ -5457,16 +6069,20 @@
       <c r="C210" s="9">
         <v>151000</v>
       </c>
-      <c r="D210" s="7" t="str" cm="1">
-        <f t="array" ref="D210">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D210" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G210" s="7" t="str" cm="1">
         <f t="array" ref="G210">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I210" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>69</v>
       </c>
@@ -5476,16 +6092,20 @@
       <c r="C211" s="9">
         <v>197000</v>
       </c>
-      <c r="D211" s="7" t="str" cm="1">
-        <f t="array" ref="D211">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D211" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G211" s="7" t="str" cm="1">
         <f t="array" ref="G211">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I211" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>57</v>
       </c>
@@ -5495,16 +6115,20 @@
       <c r="C212" s="9">
         <v>310000</v>
       </c>
-      <c r="D212" s="7" t="str" cm="1">
-        <f t="array" ref="D212">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D212" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G212" s="7" t="str" cm="1">
         <f t="array" ref="G212">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I212" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>53</v>
       </c>
@@ -5514,16 +6138,20 @@
       <c r="C213" s="9">
         <v>271000</v>
       </c>
-      <c r="D213" s="7" t="str" cm="1">
-        <f t="array" ref="D213">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D213" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G213" s="7" t="str" cm="1">
         <f t="array" ref="G213">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I213" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>5</v>
       </c>
@@ -5533,16 +6161,20 @@
       <c r="C214" s="9">
         <v>458000</v>
       </c>
-      <c r="D214" s="7" t="str" cm="1">
-        <f t="array" ref="D214">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D214" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>trovato</v>
       </c>
       <c r="G214" s="7" t="str" cm="1">
         <f t="array" ref="G214">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I214" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>31</v>
       </c>
@@ -5552,16 +6184,20 @@
       <c r="C215" s="9">
         <v>412000</v>
       </c>
-      <c r="D215" s="7" t="str" cm="1">
-        <f t="array" ref="D215">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D215" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>trovato</v>
       </c>
       <c r="G215" s="7" t="str" cm="1">
         <f t="array" ref="G215">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I215" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>31</v>
       </c>
@@ -5571,16 +6207,20 @@
       <c r="C216" s="9">
         <v>807000</v>
       </c>
-      <c r="D216" s="7" t="str" cm="1">
-        <f t="array" ref="D216">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D216" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>trovato</v>
       </c>
       <c r="G216" s="7" t="str" cm="1">
         <f t="array" ref="G216">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I216" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -5590,16 +6230,20 @@
       <c r="C217" s="9">
         <v>4000</v>
       </c>
-      <c r="D217" s="7" t="str" cm="1">
-        <f t="array" ref="D217">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D217" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G217" s="7" t="str" cm="1">
         <f t="array" ref="G217">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I217" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
         <v>25</v>
       </c>
@@ -5609,16 +6253,20 @@
       <c r="C218" s="9">
         <v>81000</v>
       </c>
-      <c r="D218" s="7" t="str" cm="1">
-        <f t="array" ref="D218">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D218" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G218" s="7" t="str" cm="1">
         <f t="array" ref="G218">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I218" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>65</v>
       </c>
@@ -5628,16 +6276,20 @@
       <c r="C219" s="9">
         <v>125000</v>
       </c>
-      <c r="D219" s="7" t="str" cm="1">
-        <f t="array" ref="D219">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D219" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G219" s="7" t="str" cm="1">
         <f t="array" ref="G219">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I219" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>66</v>
       </c>
@@ -5647,16 +6299,20 @@
       <c r="C220" s="9">
         <v>98000</v>
       </c>
-      <c r="D220" s="7" t="str" cm="1">
-        <f t="array" ref="D220">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D220" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G220" s="7" t="str" cm="1">
         <f t="array" ref="G220">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I220" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>33</v>
       </c>
@@ -5666,16 +6322,20 @@
       <c r="C221" s="9">
         <v>140000</v>
       </c>
-      <c r="D221" s="7" t="str" cm="1">
-        <f t="array" ref="D221">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D221" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G221" s="7" t="str" cm="1">
         <f t="array" ref="G221">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I221" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
         <v>9</v>
       </c>
@@ -5685,16 +6345,20 @@
       <c r="C222" s="9">
         <v>5000</v>
       </c>
-      <c r="D222" s="7" t="str" cm="1">
-        <f t="array" ref="D222">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D222" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G222" s="7" t="str" cm="1">
         <f t="array" ref="G222">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I222" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>65</v>
       </c>
@@ -5704,16 +6368,20 @@
       <c r="C223" s="9">
         <v>6000</v>
       </c>
-      <c r="D223" s="7" t="str" cm="1">
-        <f t="array" ref="D223">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D223" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G223" s="7" t="str" cm="1">
         <f t="array" ref="G223">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I223" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>9</v>
       </c>
@@ -5723,16 +6391,20 @@
       <c r="C224" s="9">
         <v>9000</v>
       </c>
-      <c r="D224" s="7" t="str" cm="1">
-        <f t="array" ref="D224">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D224" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G224" s="7" t="str" cm="1">
         <f t="array" ref="G224">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I224" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>70</v>
       </c>
@@ -5742,16 +6414,20 @@
       <c r="C225" s="9">
         <v>8000</v>
       </c>
-      <c r="D225" s="7" t="str" cm="1">
-        <f t="array" ref="D225">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D225" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G225" s="7" t="str" cm="1">
         <f t="array" ref="G225">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I225" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>70</v>
       </c>
@@ -5761,16 +6437,20 @@
       <c r="C226" s="9">
         <v>11000</v>
       </c>
-      <c r="D226" s="7" t="str" cm="1">
-        <f t="array" ref="D226">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D226" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G226" s="7" t="str" cm="1">
         <f t="array" ref="G226">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I226" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>73</v>
       </c>
@@ -5780,16 +6460,20 @@
       <c r="C227" s="9">
         <v>21000</v>
       </c>
-      <c r="D227" s="7" t="str" cm="1">
-        <f t="array" ref="D227">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D227" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G227" s="7" t="str" cm="1">
         <f t="array" ref="G227">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I227" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>71</v>
       </c>
@@ -5799,16 +6483,20 @@
       <c r="C228" s="9">
         <v>14000</v>
       </c>
-      <c r="D228" s="7" t="str" cm="1">
-        <f t="array" ref="D228">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D228" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G228" s="7" t="str" cm="1">
         <f t="array" ref="G228">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I228" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>27</v>
       </c>
@@ -5818,16 +6506,20 @@
       <c r="C229" s="9">
         <v>23000</v>
       </c>
-      <c r="D229" s="7" t="str" cm="1">
-        <f t="array" ref="D229">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D229" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G229" s="7" t="str" cm="1">
         <f t="array" ref="G229">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I229" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>37</v>
       </c>
@@ -5837,16 +6529,20 @@
       <c r="C230" s="9">
         <v>51000</v>
       </c>
-      <c r="D230" s="7" t="str" cm="1">
-        <f t="array" ref="D230">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D230" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G230" s="7" t="str" cm="1">
         <f t="array" ref="G230">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I230" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>60</v>
       </c>
@@ -5854,16 +6550,20 @@
         <v>38</v>
       </c>
       <c r="C231" s="10"/>
-      <c r="D231" s="7" t="str" cm="1">
-        <f t="array" ref="D231">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D231" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G231" s="7" t="str" cm="1">
         <f t="array" ref="G231">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I231" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>23</v>
       </c>
@@ -5873,16 +6573,20 @@
       <c r="C232" s="9">
         <v>198000</v>
       </c>
-      <c r="D232" s="7" t="str" cm="1">
-        <f t="array" ref="D232">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D232" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G232" s="7" t="str" cm="1">
         <f t="array" ref="G232">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I232" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>71</v>
       </c>
@@ -5892,16 +6596,20 @@
       <c r="C233" s="9">
         <v>167000</v>
       </c>
-      <c r="D233" s="7" t="str" cm="1">
-        <f t="array" ref="D233">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D233" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G233" s="7" t="str" cm="1">
         <f t="array" ref="G233">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I233" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>25</v>
       </c>
@@ -5911,16 +6619,20 @@
       <c r="C234" s="9">
         <v>95000</v>
       </c>
-      <c r="D234" s="7" t="str" cm="1">
-        <f t="array" ref="D234">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D234" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G234" s="7" t="str" cm="1">
         <f t="array" ref="G234">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I234" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>73</v>
       </c>
@@ -5930,16 +6642,20 @@
       <c r="C235" s="9">
         <v>141000</v>
       </c>
-      <c r="D235" s="7" t="str" cm="1">
-        <f t="array" ref="D235">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D235" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G235" s="7" t="str" cm="1">
         <f t="array" ref="G235">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I235" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>62</v>
       </c>
@@ -5949,16 +6665,20 @@
       <c r="C236" s="9">
         <v>351000</v>
       </c>
-      <c r="D236" s="7" t="str" cm="1">
-        <f t="array" ref="D236">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D236" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G236" s="7" t="str" cm="1">
         <f t="array" ref="G236">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I236" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>33</v>
       </c>
@@ -5968,16 +6688,20 @@
       <c r="C237" s="9">
         <v>414000</v>
       </c>
-      <c r="D237" s="7" t="str" cm="1">
-        <f t="array" ref="D237">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D237" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>trovato</v>
       </c>
       <c r="G237" s="7" t="str" cm="1">
         <f t="array" ref="G237">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I237" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>32</v>
       </c>
@@ -5987,16 +6711,20 @@
       <c r="C238" s="9">
         <v>61000</v>
       </c>
-      <c r="D238" s="7" t="str" cm="1">
-        <f t="array" ref="D238">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D238" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G238" s="7" t="str" cm="1">
         <f t="array" ref="G238">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I238" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>74</v>
       </c>
@@ -6006,16 +6734,20 @@
       <c r="C239" s="9">
         <v>893000</v>
       </c>
-      <c r="D239" s="7" t="str" cm="1">
-        <f t="array" ref="D239">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D239" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G239" s="7" t="str" cm="1">
         <f t="array" ref="G239">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I239" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>74</v>
       </c>
@@ -6025,16 +6757,20 @@
       <c r="C240" s="9">
         <v>985000</v>
       </c>
-      <c r="D240" s="7" t="str" cm="1">
-        <f t="array" ref="D240">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D240" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G240" s="7" t="str" cm="1">
         <f t="array" ref="G240">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I240" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>63</v>
       </c>
@@ -6044,16 +6780,20 @@
       <c r="C241" s="9">
         <v>296000</v>
       </c>
-      <c r="D241" s="7" t="str" cm="1">
-        <f t="array" ref="D241">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D241" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G241" s="7" t="str" cm="1">
         <f t="array" ref="G241">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I241" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>61</v>
       </c>
@@ -6063,16 +6803,20 @@
       <c r="C242" s="9">
         <v>685000</v>
       </c>
-      <c r="D242" s="7" t="str" cm="1">
-        <f t="array" ref="D242">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D242" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>trovato</v>
       </c>
       <c r="G242" s="7" t="str" cm="1">
         <f t="array" ref="G242">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I242" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>41</v>
       </c>
@@ -6082,16 +6826,20 @@
       <c r="C243" s="9">
         <v>1138000</v>
       </c>
-      <c r="D243" s="7" t="str" cm="1">
-        <f t="array" ref="D243">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D243" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>trovato</v>
       </c>
       <c r="G243" s="7" t="str" cm="1">
         <f t="array" ref="G243">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I243" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>193</v>
       </c>
@@ -6101,16 +6849,20 @@
       <c r="C244" s="9">
         <v>1334000</v>
       </c>
-      <c r="D244" s="7" t="str" cm="1">
-        <f t="array" ref="D244">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D244" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G244" s="7" t="str" cm="1">
         <f t="array" ref="G244">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I244" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>62</v>
       </c>
@@ -6120,16 +6872,20 @@
       <c r="C245" s="9">
         <v>30000</v>
       </c>
-      <c r="D245" s="7" t="str" cm="1">
-        <f t="array" ref="D245">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D245" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G245" s="7" t="str" cm="1">
         <f t="array" ref="G245">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I245" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>25</v>
       </c>
@@ -6139,16 +6895,20 @@
       <c r="C246" s="9">
         <v>30000</v>
       </c>
-      <c r="D246" s="7" t="str" cm="1">
-        <f t="array" ref="D246">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D246" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G246" s="7" t="str" cm="1">
         <f t="array" ref="G246">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I246" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>13</v>
       </c>
@@ -6158,16 +6918,20 @@
       <c r="C247" s="9">
         <v>406000</v>
       </c>
-      <c r="D247" s="7" t="str" cm="1">
-        <f t="array" ref="D247">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D247" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G247" s="7" t="str" cm="1">
         <f t="array" ref="G247">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I247" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>34</v>
       </c>
@@ -6177,16 +6941,20 @@
       <c r="C248" s="9">
         <v>197000</v>
       </c>
-      <c r="D248" s="7" t="str" cm="1">
-        <f t="array" ref="D248">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D248" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G248" s="7" t="str" cm="1">
         <f t="array" ref="G248">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I248" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>193</v>
       </c>
@@ -6196,16 +6964,20 @@
       <c r="C249" s="9">
         <v>645000</v>
       </c>
-      <c r="D249" s="7" t="str" cm="1">
-        <f t="array" ref="D249">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D249" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G249" s="7" t="str" cm="1">
         <f t="array" ref="G249">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I249" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
         <v>15</v>
       </c>
@@ -6215,16 +6987,20 @@
       <c r="C250" s="9">
         <v>645000</v>
       </c>
-      <c r="D250" s="7" t="str" cm="1">
-        <f t="array" ref="D250">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D250" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G250" s="7" t="str" cm="1">
         <f t="array" ref="G250">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I250" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>55</v>
       </c>
@@ -6234,16 +7010,20 @@
       <c r="C251" s="9">
         <v>259000</v>
       </c>
-      <c r="D251" s="7" t="str" cm="1">
-        <f t="array" ref="D251">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D251" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G251" s="7" t="str" cm="1">
         <f t="array" ref="G251">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I251" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>7</v>
       </c>
@@ -6253,16 +7033,20 @@
       <c r="C252" s="9">
         <v>646000</v>
       </c>
-      <c r="D252" s="7" t="str" cm="1">
-        <f t="array" ref="D252">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D252" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G252" s="7" t="str" cm="1">
         <f t="array" ref="G252">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I252" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>vero</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>62</v>
       </c>
@@ -6272,16 +7056,20 @@
       <c r="C253" s="9">
         <v>259000</v>
       </c>
-      <c r="D253" s="7" t="str" cm="1">
-        <f t="array" ref="D253">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D253" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G253" s="7" t="str" cm="1">
         <f t="array" ref="G253">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I253" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>67</v>
       </c>
@@ -6291,16 +7079,20 @@
       <c r="C254" s="9">
         <v>645000</v>
       </c>
-      <c r="D254" s="7" t="str" cm="1">
-        <f t="array" ref="D254">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D254" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G254" s="7" t="str" cm="1">
         <f t="array" ref="G254">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I254" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>44</v>
       </c>
@@ -6310,16 +7102,20 @@
       <c r="C255" s="9">
         <v>879000</v>
       </c>
-      <c r="D255" s="7" t="str" cm="1">
-        <f t="array" ref="D255">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D255" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G255" s="7" t="str" cm="1">
         <f t="array" ref="G255">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I255" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>11</v>
       </c>
@@ -6329,16 +7125,20 @@
       <c r="C256" s="9">
         <v>259000</v>
       </c>
-      <c r="D256" s="7" t="str" cm="1">
-        <f t="array" ref="D256">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D256" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G256" s="7" t="str" cm="1">
         <f t="array" ref="G256">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I256" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>17</v>
       </c>
@@ -6348,16 +7148,20 @@
       <c r="C257" s="9">
         <v>274000</v>
       </c>
-      <c r="D257" s="7" t="str" cm="1">
-        <f t="array" ref="D257">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D257" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G257" s="7" t="str" cm="1">
         <f t="array" ref="G257">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I257" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>52</v>
       </c>
@@ -6367,16 +7171,20 @@
       <c r="C258" s="9">
         <v>975000</v>
       </c>
-      <c r="D258" s="7" t="str" cm="1">
-        <f t="array" ref="D258">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D258" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G258" s="7" t="str" cm="1">
         <f t="array" ref="G258">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I258" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>31</v>
       </c>
@@ -6386,16 +7194,20 @@
       <c r="C259" s="9">
         <v>480000</v>
       </c>
-      <c r="D259" s="7" t="str" cm="1">
-        <f t="array" ref="D259">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D259" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>trovato</v>
       </c>
       <c r="G259" s="7" t="str" cm="1">
         <f t="array" ref="G259">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I259" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>25</v>
       </c>
@@ -6405,16 +7217,20 @@
       <c r="C260" s="9">
         <v>1187000</v>
       </c>
-      <c r="D260" s="7" t="str" cm="1">
-        <f t="array" ref="D260">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D260" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G260" s="7" t="str" cm="1">
         <f t="array" ref="G260">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I260" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>9</v>
       </c>
@@ -6424,16 +7240,20 @@
       <c r="C261" s="9">
         <v>832000</v>
       </c>
-      <c r="D261" s="7" t="str" cm="1">
-        <f t="array" ref="D261">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D261" s="7" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G261" s="7" t="str" cm="1">
         <f t="array" ref="G261">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I261" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>59</v>
       </c>
@@ -6443,16 +7263,20 @@
       <c r="C262" s="9">
         <v>227000</v>
       </c>
-      <c r="D262" s="7" t="str" cm="1">
-        <f t="array" ref="D262">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D262" s="7" t="str">
+        <f t="shared" ref="D262:D325" si="8">IF(AND(B262="Abbigliamento",C262&gt;300000),"trovato","")</f>
         <v/>
       </c>
       <c r="G262" s="7" t="str" cm="1">
         <f t="array" ref="G262">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I262" s="7" t="str">
+        <f t="shared" ref="I262:I325" si="9">IF(AND(B262="Manuali",C262&lt;1000000), "vero","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>29</v>
       </c>
@@ -6462,16 +7286,20 @@
       <c r="C263" s="9">
         <v>98000</v>
       </c>
-      <c r="D263" s="7" t="str" cm="1">
-        <f t="array" ref="D263">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D263" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G263" s="7" t="str" cm="1">
         <f t="array" ref="G263">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I263" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
         <v>56</v>
       </c>
@@ -6481,16 +7309,20 @@
       <c r="C264" s="9">
         <v>1190000</v>
       </c>
-      <c r="D264" s="7" t="str" cm="1">
-        <f t="array" ref="D264">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D264" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G264" s="7" t="str" cm="1">
         <f t="array" ref="G264">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I264" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>31</v>
       </c>
@@ -6500,16 +7332,20 @@
       <c r="C265" s="9">
         <v>300000</v>
       </c>
-      <c r="D265" s="7" t="str" cm="1">
-        <f t="array" ref="D265">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D265" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G265" s="7" t="str" cm="1">
         <f t="array" ref="G265">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I265" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>59</v>
       </c>
@@ -6519,16 +7355,20 @@
       <c r="C266" s="9">
         <v>2407000</v>
       </c>
-      <c r="D266" s="7" t="str" cm="1">
-        <f t="array" ref="D266">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D266" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G266" s="7" t="str" cm="1">
         <f t="array" ref="G266">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I266" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>56</v>
       </c>
@@ -6538,16 +7378,20 @@
       <c r="C267" s="9">
         <v>1021000</v>
       </c>
-      <c r="D267" s="7" t="str" cm="1">
-        <f t="array" ref="D267">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D267" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G267" s="7" t="str" cm="1">
         <f t="array" ref="G267">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I267" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
         <v>56</v>
       </c>
@@ -6557,16 +7401,20 @@
       <c r="C268" s="9">
         <v>646000</v>
       </c>
-      <c r="D268" s="7" t="str" cm="1">
-        <f t="array" ref="D268">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D268" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G268" s="7" t="str" cm="1">
         <f t="array" ref="G268">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I268" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>5</v>
       </c>
@@ -6576,16 +7424,20 @@
       <c r="C269" s="9">
         <v>259000</v>
       </c>
-      <c r="D269" s="7" t="str" cm="1">
-        <f t="array" ref="D269">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D269" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G269" s="7" t="str" cm="1">
         <f t="array" ref="G269">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I269" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>47</v>
       </c>
@@ -6595,16 +7447,20 @@
       <c r="C270" s="9">
         <v>193000</v>
       </c>
-      <c r="D270" s="7" t="str" cm="1">
-        <f t="array" ref="D270">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D270" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G270" s="7" t="str" cm="1">
         <f t="array" ref="G270">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I270" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>39</v>
       </c>
@@ -6614,16 +7470,20 @@
       <c r="C271" s="9">
         <v>96000</v>
       </c>
-      <c r="D271" s="7" t="str" cm="1">
-        <f t="array" ref="D271">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D271" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G271" s="7" t="str" cm="1">
         <f t="array" ref="G271">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I271" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>36</v>
       </c>
@@ -6633,16 +7493,20 @@
       <c r="C272" s="9">
         <v>594000</v>
       </c>
-      <c r="D272" s="7" t="str" cm="1">
-        <f t="array" ref="D272">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D272" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G272" s="7" t="str" cm="1">
         <f t="array" ref="G272">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I272" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>49</v>
       </c>
@@ -6652,16 +7516,20 @@
       <c r="C273" s="9">
         <v>282000</v>
       </c>
-      <c r="D273" s="7" t="str" cm="1">
-        <f t="array" ref="D273">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D273" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G273" s="7" t="str" cm="1">
         <f t="array" ref="G273">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I273" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>20</v>
       </c>
@@ -6671,16 +7539,20 @@
       <c r="C274" s="9">
         <v>1814000</v>
       </c>
-      <c r="D274" s="7" t="str" cm="1">
-        <f t="array" ref="D274">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D274" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G274" s="7" t="str" cm="1">
         <f t="array" ref="G274">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I274" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>18</v>
       </c>
@@ -6690,16 +7562,20 @@
       <c r="C275" s="9">
         <v>193000</v>
       </c>
-      <c r="D275" s="7" t="str" cm="1">
-        <f t="array" ref="D275">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D275" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G275" s="7" t="str" cm="1">
         <f t="array" ref="G275">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I275" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>46</v>
       </c>
@@ -6709,16 +7585,20 @@
       <c r="C276" s="9">
         <v>654000</v>
       </c>
-      <c r="D276" s="7" t="str" cm="1">
-        <f t="array" ref="D276">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D276" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G276" s="7" t="str" cm="1">
         <f t="array" ref="G276">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I276" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>67</v>
       </c>
@@ -6728,16 +7608,20 @@
       <c r="C277" s="9">
         <v>729000</v>
       </c>
-      <c r="D277" s="7" t="str" cm="1">
-        <f t="array" ref="D277">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D277" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G277" s="7" t="str" cm="1">
         <f t="array" ref="G277">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I277" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>21</v>
       </c>
@@ -6747,16 +7631,20 @@
       <c r="C278" s="9">
         <v>632000</v>
       </c>
-      <c r="D278" s="7" t="str" cm="1">
-        <f t="array" ref="D278">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D278" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G278" s="7" t="str" cm="1">
         <f t="array" ref="G278">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I278" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>61</v>
       </c>
@@ -6766,16 +7654,20 @@
       <c r="C279" s="9">
         <v>240000</v>
       </c>
-      <c r="D279" s="7" t="str" cm="1">
-        <f t="array" ref="D279">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D279" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G279" s="7" t="str" cm="1">
         <f t="array" ref="G279">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I279" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>42</v>
       </c>
@@ -6785,16 +7677,20 @@
       <c r="C280" s="9">
         <v>955000</v>
       </c>
-      <c r="D280" s="7" t="str" cm="1">
-        <f t="array" ref="D280">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D280" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G280" s="7" t="str" cm="1">
         <f t="array" ref="G280">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I280" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>44</v>
       </c>
@@ -6804,16 +7700,20 @@
       <c r="C281" s="9">
         <v>1126000</v>
       </c>
-      <c r="D281" s="7" t="str" cm="1">
-        <f t="array" ref="D281">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D281" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G281" s="7" t="str" cm="1">
         <f t="array" ref="G281">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I281" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>191</v>
       </c>
@@ -6821,16 +7721,20 @@
         <v>58</v>
       </c>
       <c r="C282" s="10"/>
-      <c r="D282" s="7" t="str" cm="1">
-        <f t="array" ref="D282">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D282" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G282" s="7" t="str" cm="1">
         <f t="array" ref="G282">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I282" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>33</v>
       </c>
@@ -6840,16 +7744,20 @@
       <c r="C283" s="9">
         <v>297000</v>
       </c>
-      <c r="D283" s="7" t="str" cm="1">
-        <f t="array" ref="D283">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D283" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G283" s="7" t="str" cm="1">
         <f t="array" ref="G283">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I283" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>20</v>
       </c>
@@ -6859,16 +7767,20 @@
       <c r="C284" s="9">
         <v>646000</v>
       </c>
-      <c r="D284" s="7" t="str" cm="1">
-        <f t="array" ref="D284">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D284" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G284" s="7" t="str" cm="1">
         <f t="array" ref="G284">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I284" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>45</v>
       </c>
@@ -6878,16 +7790,20 @@
       <c r="C285" s="9">
         <v>714000</v>
       </c>
-      <c r="D285" s="7" t="str" cm="1">
-        <f t="array" ref="D285">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D285" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G285" s="7" t="str" cm="1">
         <f t="array" ref="G285">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I285" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>50</v>
       </c>
@@ -6897,16 +7813,20 @@
       <c r="C286" s="9">
         <v>807000</v>
       </c>
-      <c r="D286" s="7" t="str" cm="1">
-        <f t="array" ref="D286">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D286" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G286" s="7" t="str" cm="1">
         <f t="array" ref="G286">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I286" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>21</v>
       </c>
@@ -6916,16 +7836,20 @@
       <c r="C287" s="9">
         <v>591000</v>
       </c>
-      <c r="D287" s="7" t="str" cm="1">
-        <f t="array" ref="D287">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D287" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G287" s="7" t="str" cm="1">
         <f t="array" ref="G287">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I287" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>60</v>
       </c>
@@ -6935,16 +7859,20 @@
       <c r="C288" s="9">
         <v>918000</v>
       </c>
-      <c r="D288" s="7" t="str" cm="1">
-        <f t="array" ref="D288">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D288" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G288" s="7" t="str" cm="1">
         <f t="array" ref="G288">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I288" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>69</v>
       </c>
@@ -6954,16 +7882,20 @@
       <c r="C289" s="9">
         <v>1265000</v>
       </c>
-      <c r="D289" s="7" t="str" cm="1">
-        <f t="array" ref="D289">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D289" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G289" s="7" t="str" cm="1">
         <f t="array" ref="G289">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I289" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>69</v>
       </c>
@@ -6973,16 +7905,20 @@
       <c r="C290" s="9">
         <v>256000</v>
       </c>
-      <c r="D290" s="7" t="str" cm="1">
-        <f t="array" ref="D290">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D290" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G290" s="7" t="str" cm="1">
         <f t="array" ref="G290">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I290" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>57</v>
       </c>
@@ -6992,16 +7928,20 @@
       <c r="C291" s="9">
         <v>371000</v>
       </c>
-      <c r="D291" s="7" t="str" cm="1">
-        <f t="array" ref="D291">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D291" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G291" s="7" t="str" cm="1">
         <f t="array" ref="G291">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I291" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>53</v>
       </c>
@@ -7011,16 +7951,20 @@
       <c r="C292" s="9">
         <v>457000</v>
       </c>
-      <c r="D292" s="7" t="str" cm="1">
-        <f t="array" ref="D292">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D292" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G292" s="7" t="str" cm="1">
         <f t="array" ref="G292">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I292" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>5</v>
       </c>
@@ -7030,16 +7974,20 @@
       <c r="C293" s="9">
         <v>642000</v>
       </c>
-      <c r="D293" s="7" t="str" cm="1">
-        <f t="array" ref="D293">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D293" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>trovato</v>
       </c>
       <c r="G293" s="7" t="str" cm="1">
         <f t="array" ref="G293">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I293" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>31</v>
       </c>
@@ -7049,16 +7997,20 @@
       <c r="C294" s="9">
         <v>1571000</v>
       </c>
-      <c r="D294" s="7" t="str" cm="1">
-        <f t="array" ref="D294">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D294" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>trovato</v>
       </c>
       <c r="G294" s="7" t="str" cm="1">
         <f t="array" ref="G294">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I294" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>31</v>
       </c>
@@ -7068,16 +8020,20 @@
       <c r="C295" s="9">
         <v>756000</v>
       </c>
-      <c r="D295" s="7" t="str" cm="1">
-        <f t="array" ref="D295">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D295" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>trovato</v>
       </c>
       <c r="G295" s="7" t="str" cm="1">
         <f t="array" ref="G295">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I295" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>47</v>
       </c>
@@ -7087,16 +8043,20 @@
       <c r="C296" s="9">
         <v>1571000</v>
       </c>
-      <c r="D296" s="7" t="str" cm="1">
-        <f t="array" ref="D296">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D296" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G296" s="7" t="str" cm="1">
         <f t="array" ref="G296">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I296" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>25</v>
       </c>
@@ -7106,16 +8066,20 @@
       <c r="C297" s="9">
         <v>2716000</v>
       </c>
-      <c r="D297" s="7" t="str" cm="1">
-        <f t="array" ref="D297">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D297" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G297" s="7" t="str" cm="1">
         <f t="array" ref="G297">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I297" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
         <v>65</v>
       </c>
@@ -7125,16 +8089,20 @@
       <c r="C298" s="9">
         <v>640000</v>
       </c>
-      <c r="D298" s="7" t="str" cm="1">
-        <f t="array" ref="D298">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D298" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G298" s="7" t="str" cm="1">
         <f t="array" ref="G298">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I298" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
         <v>66</v>
       </c>
@@ -7144,16 +8112,20 @@
       <c r="C299" s="9">
         <v>255000</v>
       </c>
-      <c r="D299" s="7" t="str" cm="1">
-        <f t="array" ref="D299">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D299" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G299" s="7" t="str" cm="1">
         <f t="array" ref="G299">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I299" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
         <v>33</v>
       </c>
@@ -7163,16 +8135,20 @@
       <c r="C300" s="9">
         <v>413000</v>
       </c>
-      <c r="D300" s="7" t="str" cm="1">
-        <f t="array" ref="D300">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D300" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>trovato</v>
       </c>
       <c r="G300" s="7" t="str" cm="1">
         <f t="array" ref="G300">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I300" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
         <v>9</v>
       </c>
@@ -7182,16 +8158,20 @@
       <c r="C301" s="9">
         <v>361000</v>
       </c>
-      <c r="D301" s="7" t="str" cm="1">
-        <f t="array" ref="D301">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D301" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G301" s="7" t="str" cm="1">
         <f t="array" ref="G301">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I301" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
         <v>65</v>
       </c>
@@ -7201,16 +8181,20 @@
       <c r="C302" s="9">
         <v>544000</v>
       </c>
-      <c r="D302" s="7" t="str" cm="1">
-        <f t="array" ref="D302">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D302" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G302" s="7" t="str" cm="1">
         <f t="array" ref="G302">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I302" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
         <v>9</v>
       </c>
@@ -7220,16 +8204,20 @@
       <c r="C303" s="9">
         <v>678000</v>
       </c>
-      <c r="D303" s="7" t="str" cm="1">
-        <f t="array" ref="D303">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D303" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G303" s="7" t="str" cm="1">
         <f t="array" ref="G303">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I303" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>70</v>
       </c>
@@ -7239,16 +8227,20 @@
       <c r="C304" s="9">
         <v>1054000</v>
       </c>
-      <c r="D304" s="7" t="str" cm="1">
-        <f t="array" ref="D304">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D304" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G304" s="7" t="str" cm="1">
         <f t="array" ref="G304">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I304" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>70</v>
       </c>
@@ -7258,16 +8250,20 @@
       <c r="C305" s="9">
         <v>482000</v>
       </c>
-      <c r="D305" s="7" t="str" cm="1">
-        <f t="array" ref="D305">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D305" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G305" s="7" t="str" cm="1">
         <f t="array" ref="G305">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I305" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
         <v>73</v>
       </c>
@@ -7277,16 +8273,20 @@
       <c r="C306" s="9">
         <v>722000</v>
       </c>
-      <c r="D306" s="7" t="str" cm="1">
-        <f t="array" ref="D306">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D306" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G306" s="7" t="str" cm="1">
         <f t="array" ref="G306">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I306" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>71</v>
       </c>
@@ -7296,16 +8296,20 @@
       <c r="C307" s="9">
         <v>269000</v>
       </c>
-      <c r="D307" s="7" t="str" cm="1">
-        <f t="array" ref="D307">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D307" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G307" s="7" t="str" cm="1">
         <f t="array" ref="G307">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I307" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
         <v>27</v>
       </c>
@@ -7315,16 +8319,20 @@
       <c r="C308" s="9">
         <v>371000</v>
       </c>
-      <c r="D308" s="7" t="str" cm="1">
-        <f t="array" ref="D308">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D308" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G308" s="7" t="str" cm="1">
         <f t="array" ref="G308">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I308" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
         <v>37</v>
       </c>
@@ -7334,16 +8342,20 @@
       <c r="C309" s="9">
         <v>462000</v>
       </c>
-      <c r="D309" s="7" t="str" cm="1">
-        <f t="array" ref="D309">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D309" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G309" s="7" t="str" cm="1">
         <f t="array" ref="G309">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I309" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
         <v>60</v>
       </c>
@@ -7353,16 +8365,20 @@
       <c r="C310" s="9">
         <v>541000</v>
       </c>
-      <c r="D310" s="7" t="str" cm="1">
-        <f t="array" ref="D310">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D310" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G310" s="7" t="str" cm="1">
         <f t="array" ref="G310">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I310" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
         <v>23</v>
       </c>
@@ -7372,16 +8388,20 @@
       <c r="C311" s="9">
         <v>648000</v>
       </c>
-      <c r="D311" s="7" t="str" cm="1">
-        <f t="array" ref="D311">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D311" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G311" s="7" t="str" cm="1">
         <f t="array" ref="G311">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I311" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
@@ -7391,16 +8411,20 @@
       <c r="C312" s="9">
         <v>644000</v>
       </c>
-      <c r="D312" s="7" t="str" cm="1">
-        <f t="array" ref="D312">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D312" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G312" s="7" t="str" cm="1">
         <f t="array" ref="G312">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I312" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>25</v>
       </c>
@@ -7410,16 +8434,20 @@
       <c r="C313" s="9">
         <v>902000</v>
       </c>
-      <c r="D313" s="7" t="str" cm="1">
-        <f t="array" ref="D313">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D313" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G313" s="7" t="str" cm="1">
         <f t="array" ref="G313">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I313" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
         <v>73</v>
       </c>
@@ -7429,16 +8457,20 @@
       <c r="C314" s="9">
         <v>722000</v>
       </c>
-      <c r="D314" s="7" t="str" cm="1">
-        <f t="array" ref="D314">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D314" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G314" s="7" t="str" cm="1">
         <f t="array" ref="G314">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I314" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>62</v>
       </c>
@@ -7448,16 +8480,20 @@
       <c r="C315" s="9">
         <v>1457000</v>
       </c>
-      <c r="D315" s="7" t="str" cm="1">
-        <f t="array" ref="D315">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D315" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G315" s="7" t="str" cm="1">
         <f t="array" ref="G315">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I315" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
         <v>33</v>
       </c>
@@ -7467,16 +8503,20 @@
       <c r="C316" s="9">
         <v>1786000</v>
       </c>
-      <c r="D316" s="7" t="str" cm="1">
-        <f t="array" ref="D316">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D316" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>trovato</v>
       </c>
       <c r="G316" s="7" t="str" cm="1">
         <f t="array" ref="G316">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I316" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>32</v>
       </c>
@@ -7484,16 +8524,20 @@
         <v>22</v>
       </c>
       <c r="C317" s="10"/>
-      <c r="D317" s="7" t="str" cm="1">
-        <f t="array" ref="D317">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D317" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G317" s="7" t="str" cm="1">
         <f t="array" ref="G317">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I317" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>74</v>
       </c>
@@ -7503,16 +8547,20 @@
       <c r="C318" s="9">
         <v>85000</v>
       </c>
-      <c r="D318" s="7" t="str" cm="1">
-        <f t="array" ref="D318">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D318" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G318" s="7" t="str" cm="1">
         <f t="array" ref="G318">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I318" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>74</v>
       </c>
@@ -7522,16 +8570,20 @@
       <c r="C319" s="9">
         <v>84000</v>
       </c>
-      <c r="D319" s="7" t="str" cm="1">
-        <f t="array" ref="D319">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D319" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G319" s="7" t="str" cm="1">
         <f t="array" ref="G319">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I319" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
         <v>63</v>
       </c>
@@ -7541,16 +8593,20 @@
       <c r="C320" s="9">
         <v>115000</v>
       </c>
-      <c r="D320" s="7" t="str" cm="1">
-        <f t="array" ref="D320">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D320" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G320" s="7" t="str" cm="1">
         <f t="array" ref="G320">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I320" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>61</v>
       </c>
@@ -7560,16 +8616,20 @@
       <c r="C321" s="9">
         <v>152000</v>
       </c>
-      <c r="D321" s="7" t="str" cm="1">
-        <f t="array" ref="D321">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D321" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G321" s="7" t="str" cm="1">
         <f t="array" ref="G321">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I321" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>41</v>
       </c>
@@ -7579,16 +8639,20 @@
       <c r="C322" s="9">
         <v>82000</v>
       </c>
-      <c r="D322" s="7" t="str" cm="1">
-        <f t="array" ref="D322">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D322" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G322" s="7" t="str" cm="1">
         <f t="array" ref="G322">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I322" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>193</v>
       </c>
@@ -7598,16 +8662,20 @@
       <c r="C323" s="9">
         <v>84000</v>
       </c>
-      <c r="D323" s="7" t="str" cm="1">
-        <f t="array" ref="D323">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D323" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G323" s="7" t="str" cm="1">
         <f t="array" ref="G323">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I323" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>62</v>
       </c>
@@ -7617,16 +8685,20 @@
       <c r="C324" s="9">
         <v>115000</v>
       </c>
-      <c r="D324" s="7" t="str" cm="1">
-        <f t="array" ref="D324">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D324" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G324" s="7" t="str" cm="1">
         <f t="array" ref="G324">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I324" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>25</v>
       </c>
@@ -7636,16 +8708,20 @@
       <c r="C325" s="9">
         <v>153000</v>
       </c>
-      <c r="D325" s="7" t="str" cm="1">
-        <f t="array" ref="D325">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D325" s="7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G325" s="7" t="str" cm="1">
         <f t="array" ref="G325">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I325" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>13</v>
       </c>
@@ -7655,16 +8731,20 @@
       <c r="C326" s="9">
         <v>80000</v>
       </c>
-      <c r="D326" s="7" t="str" cm="1">
-        <f t="array" ref="D326">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D326" s="7" t="str">
+        <f t="shared" ref="D326:D340" si="10">IF(AND(B326="Abbigliamento",C326&gt;300000),"trovato","")</f>
         <v/>
       </c>
       <c r="G326" s="7" t="str" cm="1">
         <f t="array" ref="G326">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I326" s="7" t="str">
+        <f t="shared" ref="I326:I340" si="11">IF(AND(B326="Manuali",C326&lt;1000000), "vero","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>34</v>
       </c>
@@ -7674,16 +8754,20 @@
       <c r="C327" s="9">
         <v>102000</v>
       </c>
-      <c r="D327" s="7" t="str" cm="1">
-        <f t="array" ref="D327">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D327" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G327" s="7" t="str" cm="1">
         <f t="array" ref="G327">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I327" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>193</v>
       </c>
@@ -7693,16 +8777,20 @@
       <c r="C328" s="10">
         <v>0</v>
       </c>
-      <c r="D328" s="7" t="str" cm="1">
-        <f t="array" ref="D328">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D328" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G328" s="7" t="str" cm="1">
         <f t="array" ref="G328">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I328" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>15</v>
       </c>
@@ -7712,16 +8800,20 @@
       <c r="C329" s="9">
         <v>198000</v>
       </c>
-      <c r="D329" s="7" t="str" cm="1">
-        <f t="array" ref="D329">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D329" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G329" s="7" t="str" cm="1">
         <f t="array" ref="G329">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I329" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>55</v>
       </c>
@@ -7731,16 +8823,20 @@
       <c r="C330" s="9">
         <v>233000</v>
       </c>
-      <c r="D330" s="7" t="str" cm="1">
-        <f t="array" ref="D330">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D330" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G330" s="7" t="str" cm="1">
         <f t="array" ref="G330">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I330" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>7</v>
       </c>
@@ -7750,16 +8846,20 @@
       <c r="C331" s="9">
         <v>279000</v>
       </c>
-      <c r="D331" s="7" t="str" cm="1">
-        <f t="array" ref="D331">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D331" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G331" s="7" t="str" cm="1">
         <f t="array" ref="G331">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I331" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>vero</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>62</v>
       </c>
@@ -7769,16 +8869,20 @@
       <c r="C332" s="9">
         <v>298000</v>
       </c>
-      <c r="D332" s="7" t="str" cm="1">
-        <f t="array" ref="D332">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D332" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G332" s="7" t="str" cm="1">
         <f t="array" ref="G332">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I332" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>67</v>
       </c>
@@ -7788,16 +8892,20 @@
       <c r="C333" s="9">
         <v>478000</v>
       </c>
-      <c r="D333" s="7" t="str" cm="1">
-        <f t="array" ref="D333">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D333" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G333" s="7" t="str" cm="1">
         <f t="array" ref="G333">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I333" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>44</v>
       </c>
@@ -7807,16 +8915,20 @@
       <c r="C334" s="9">
         <v>626000</v>
       </c>
-      <c r="D334" s="7" t="str" cm="1">
-        <f t="array" ref="D334">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D334" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G334" s="7" t="str" cm="1">
         <f t="array" ref="G334">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I334" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>11</v>
       </c>
@@ -7826,16 +8938,20 @@
       <c r="C335" s="9">
         <v>757000</v>
       </c>
-      <c r="D335" s="7" t="str" cm="1">
-        <f t="array" ref="D335">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D335" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G335" s="7" t="str" cm="1">
         <f t="array" ref="G335">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I335" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>17</v>
       </c>
@@ -7845,16 +8961,20 @@
       <c r="C336" s="9">
         <v>1128000</v>
       </c>
-      <c r="D336" s="7" t="str" cm="1">
-        <f t="array" ref="D336">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D336" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G336" s="7" t="str" cm="1">
         <f t="array" ref="G336">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I336" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>52</v>
       </c>
@@ -7864,16 +8984,20 @@
       <c r="C337" s="9">
         <v>1527000</v>
       </c>
-      <c r="D337" s="7" t="str" cm="1">
-        <f t="array" ref="D337">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D337" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G337" s="7" t="str" cm="1">
         <f t="array" ref="G337">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I337" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>31</v>
       </c>
@@ -7883,16 +9007,20 @@
       <c r="C338" s="9">
         <v>4134000</v>
       </c>
-      <c r="D338" s="7" t="str" cm="1">
-        <f t="array" ref="D338">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
-        <v/>
+      <c r="D338" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>trovato</v>
       </c>
       <c r="G338" s="7" t="str" cm="1">
         <f t="array" ref="G338">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I338" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
         <v>25</v>
       </c>
@@ -7902,16 +9030,20 @@
       <c r="C339" s="9">
         <v>6850000</v>
       </c>
-      <c r="D339" s="7" t="str" cm="1">
-        <f t="array" ref="D339">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D339" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G339" s="7" t="str" cm="1">
         <f t="array" ref="G339">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
         <v/>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I339" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
         <v>9</v>
       </c>
@@ -7921,12 +9053,16 @@
       <c r="C340" s="9">
         <v>11712000</v>
       </c>
-      <c r="D340" s="7" t="str" cm="1">
-        <f t="array" ref="D340">IF(AND(B:B="ABBIGLIAMENTO",C:C&gt;300000),"TROVATO","")</f>
+      <c r="D340" s="7" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G340" s="7" t="str" cm="1">
         <f t="array" ref="G340">IF(AND(B:B="MANUALI",C:C&lt;1000000),"VERO","")</f>
+        <v/>
+      </c>
+      <c r="I340" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -7937,7 +9073,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>B1="ufficio"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9497,7 +10633,7 @@
       <c r="B5" s="24">
         <v>5</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5">
         <f>COUNTIF(B:B,"&gt;100")</f>
         <v>12</v>
       </c>
@@ -9543,7 +10679,7 @@
       <c r="B9" s="24">
         <v>5</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <f>COUNTIFS(B:B,"&gt;=10",B:B,"&lt;=100")</f>
         <v>53</v>
       </c>

--- a/ESERCIZIO W1D2.xlsx
+++ b/ESERCIZIO W1D2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlcoz\Desktop\EPICODE\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlcoz\Desktop\EPICODE\excel\1 SETTIMANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D210D7-954D-445D-BA13-C85A8C98BB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9471EB-D216-431A-8DF1-CB9E538B3D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-980" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CONTA" sheetId="32" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assoluti_Iva!$A$4:$C$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assoluti_Iva!$A$4:$I$340</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CONTA!$A$1:$A$110</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LOGICA!$A$1:$D$80</definedName>
     <definedName name="abitanti">CONTA!$B$2:$B$110</definedName>
@@ -1325,9 +1325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64CFBE5-9F9D-4F9A-8F99-5524B5637A72}">
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1409,8 +1409,8 @@
         <v>1096480</v>
       </c>
       <c r="G5" s="9">
-        <f>SUM(C318:C340)</f>
-        <v>29272000</v>
+        <f>SUM(C:C)</f>
+        <v>171416000</v>
       </c>
       <c r="H5" s="9">
         <f>AVERAGE(C5:C340)</f>
@@ -9067,6 +9067,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:I340" xr:uid="{B64CFBE5-9F9D-4F9A-8F99-5524B5637A72}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
@@ -9093,7 +9094,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="4" bestFit="1" customWidth="1"/>
@@ -10564,8 +10565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/ESERCIZIO W1D2.xlsx
+++ b/ESERCIZIO W1D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlcoz\Desktop\EPICODE\excel\1 SETTIMANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9471EB-D216-431A-8DF1-CB9E538B3D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A8A7D1-8E5A-44EF-82CF-A8A8A99A579A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13550" yWindow="-980" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assoluti_Iva!$A$4:$I$340</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CONTA!$A$1:$A$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CONTA!$A$1:$A$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LOGICA!$A$1:$D$80</definedName>
     <definedName name="abitanti">CONTA!$B$2:$B$110</definedName>
     <definedName name="ACCES">Assoluti_Iva!$A$196:$C$230</definedName>
@@ -10566,7 +10566,7 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10600,15 +10600,15 @@
         <v>125</v>
       </c>
       <c r="D2" s="23">
-        <f>VLOOKUP(A2,A:B,2,0)</f>
-        <v>125</v>
+        <f>SUMIF(A:A,A2,B:B)</f>
+        <v>130</v>
       </c>
       <c r="E2" s="23">
         <f>VLOOKUP(A5,A:B,2,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>91</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>84</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>126</v>
       </c>
@@ -11507,7 +11507,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A110" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}"/>
+  <autoFilter ref="A1:A111" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ESERCIZIO W1D2.xlsx
+++ b/ESERCIZIO W1D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlcoz\Desktop\EPICODE\excel\1 SETTIMANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A8A7D1-8E5A-44EF-82CF-A8A8A99A579A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B58B606-05F6-4C22-AA4B-56CE98A9047A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13550" yWindow="-980" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10563,10 +10563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10608,7 +10608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>91</v>
       </c>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="D5">
         <f>COUNTIF(B:B,"&gt;100")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10650,7 +10650,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>84</v>
       </c>
@@ -10658,8 +10658,8 @@
         <v>75</v>
       </c>
       <c r="D7">
-        <f>COUNTIF(A:A,"C*")</f>
-        <v>13</v>
+        <f>COUNTIF(A2:A110,"C*")</f>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -10673,7 +10673,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>126</v>
       </c>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="D11">
         <f>SUM(B:B)</f>
-        <v>25128</v>
+        <v>12564</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11498,12 +11498,6 @@
       </c>
       <c r="B110" s="24">
         <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B111">
-        <f>SUM(abitanti)</f>
-        <v>12564</v>
       </c>
     </row>
   </sheetData>
